--- a/Sample Output/ADRecon-Report-20180828223537/sos.labs-ADRecon-Report.xlsx
+++ b/Sample Output/ADRecon-Report-20180828223537/sos.labs-ADRecon-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ADRecon\ADRecon-Report-20180828223537\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tools\GitHub\ADRecon\Sample Output\ADRecon-Report-20180828223537\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E64843-1B18-40A2-957E-A338B0365C6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E36A26-DD30-47BA-8D10-A8C7F04024C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755" xr2:uid="{BBE327B2-73B9-44E4-8F93-DF0DED7E484C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755" xr2:uid="{A9A7FE49-3D63-4903-82AC-E5B38E0CAA70}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="28" r:id="rId1"/>
@@ -47,17 +47,24 @@
     <pivotCache cacheId="2" r:id="rId29"/>
     <pivotCache cacheId="5" r:id="rId30"/>
     <pivotCache cacheId="10" r:id="rId31"/>
+    <pivotCache cacheId="13" r:id="rId32"/>
+    <pivotCache cacheId="16" r:id="rId33"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10271" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10270" uniqueCount="1046">
   <si>
     <t>Category</t>
   </si>
@@ -3278,7 +3285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -3295,15 +3302,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="9"/>
@@ -3435,6 +3473,10 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sos.labs-ADRecon-Report.xlsx]User Stats!User Status</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3446,7 +3488,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU"/>
+              <a:rPr lang="en-US"/>
               <a:t>User Accounts in AD</a:t>
             </a:r>
           </a:p>
@@ -3455,6 +3497,58 @@
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3462,6 +3556,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User Stats'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3470,6 +3575,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3483,36 +3600,85 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'User Stats'!$A$3:$A$4</c:f>
+              <c:f>'User Stats'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Enabled</c:v>
+                  <c:v>Disabled</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Disabled</c:v>
+                  <c:v>Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Stats'!$B$3:$B$4</c:f>
+              <c:f>'User Stats'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDB7-41D1-BC22-6936282C2A04}"/>
+              <c16:uniqueId val="{00000006-C4A9-4848-ADEA-9950E4DF4861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User Stats'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'User Stats'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Disabled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'User Stats'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21052631578947367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78947368421052633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C4A9-4848-ADEA-9950E4DF4861}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3548,6 +3714,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3741,7 +3923,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17FF-4930-AD84-DA3D2ACCC941}"/>
+              <c16:uniqueId val="{00000000-3967-40D1-8221-59D4953DFE5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3754,11 +3936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1847451935"/>
-        <c:axId val="1838414287"/>
+        <c:axId val="367955807"/>
+        <c:axId val="366994479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1847451935"/>
+        <c:axId val="367955807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1838414287"/>
+        <c:crossAx val="366994479"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3776,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1838414287"/>
+        <c:axId val="366994479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,7 +3969,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1847451935"/>
+        <c:crossAx val="367955807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3828,6 +4010,10 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sos.labs-ADRecon-Report.xlsx]Computer Stats!User Status</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3848,6 +4034,58 @@
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3857,11 +4095,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Computer Stats'!$A$3</c:f>
+              <c:f>'Computer Stats'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Enabled</c:v>
+                  <c:v>Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3874,6 +4112,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3885,9 +4135,20 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Computer Stats'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Computer Stats'!$B$3</c:f>
+              <c:f>'Computer Stats'!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3899,7 +4160,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E0FB-4F30-B45C-B3C2503D894C}"/>
+              <c16:uniqueId val="{00000005-E9D8-44D0-A86B-3F5802BC74BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3908,30 +4169,41 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Computer Stats'!$A$4</c:f>
+              <c:f>'Computer Stats'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Disabled</c:v>
+                  <c:v>Percentage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Computer Stats'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Computer Stats'!$B$4</c:f>
+              <c:f>'Computer Stats'!$C$3:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E0FB-4F30-B45C-B3C2503D894C}"/>
+              <c16:uniqueId val="{00000006-E9D8-44D0-A86B-3F5802BC74BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3950,16 +4222,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3977,6 +4239,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -4024,11 +4302,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Computer Stats'!$F$3</c:f>
+              <c:f>'Computer Stats'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unconstrained Delegation</c:v>
+                  <c:v>Enabled Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4057,198 +4335,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Computer Stats'!$G$2</c:f>
+              <c:f>'Computer Stats'!$F$3:$F$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Enabled Count</c:v>
+                  <c:v>Unconstrained Delegation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Constrained Delegation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SIDHistory</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dormant (&gt; 90 days)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Password Age (&gt; 30 days)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Computer Stats'!$G$3</c:f>
+              <c:f>'Computer Stats'!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A434-4A40-9C17-1C1A3A8522B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Computer Stats'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Constrained Delegation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Computer Stats'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enabled Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Computer Stats'!$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A434-4A40-9C17-1C1A3A8522B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Computer Stats'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIDHistory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Computer Stats'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enabled Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Computer Stats'!$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A434-4A40-9C17-1C1A3A8522B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Computer Stats'!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dormant (&gt; 90 days)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Computer Stats'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enabled Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Computer Stats'!$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A434-4A40-9C17-1C1A3A8522B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Computer Stats'!$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Password Age (&gt; 30 days)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Computer Stats'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enabled Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Computer Stats'!$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -4256,7 +4382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A434-4A40-9C17-1C1A3A8522B4}"/>
+              <c16:uniqueId val="{00000000-BB2F-49D8-8E91-D8F179A96004}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4269,11 +4395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1847437935"/>
-        <c:axId val="1838417615"/>
+        <c:axId val="367114431"/>
+        <c:axId val="366994063"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1847437935"/>
+        <c:axId val="367114431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1838417615"/>
+        <c:crossAx val="366994063"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4291,7 +4417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1838417615"/>
+        <c:axId val="366994063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4428,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1847437935"/>
+        <c:crossAx val="367114431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,7 +4679,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1399-471F-BAF7-9AA4A2986774}"/>
+              <c16:uniqueId val="{00000000-4552-403A-BD47-C1AE0B2FAE9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4567,11 +4693,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="1816755727"/>
-        <c:axId val="1838405135"/>
+        <c:axId val="364042015"/>
+        <c:axId val="365514879"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1816755727"/>
+        <c:axId val="364042015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4581,7 +4707,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1838405135"/>
+        <c:crossAx val="365514879"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4589,7 +4715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1838405135"/>
+        <c:axId val="365514879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4600,7 +4726,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1816755727"/>
+        <c:crossAx val="364042015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4855,7 +4981,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A05A-4481-8D08-D99CE51A07D4}"/>
+              <c16:uniqueId val="{00000000-8759-4F1B-8A6B-DC2374420083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4869,11 +4995,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="1771777871"/>
-        <c:axId val="1809589999"/>
+        <c:axId val="281763487"/>
+        <c:axId val="282298479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1771777871"/>
+        <c:axId val="281763487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4883,7 +5009,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1809589999"/>
+        <c:crossAx val="282298479"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4891,7 +5017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809589999"/>
+        <c:axId val="282298479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4902,7 +5028,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1771777871"/>
+        <c:crossAx val="281763487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5133,7 +5259,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F5F-431F-8A2A-1DD719A52FDE}"/>
+              <c16:uniqueId val="{00000000-E882-40D6-9999-CE3BA34ED5D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5147,11 +5273,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="1692153039"/>
-        <c:axId val="1604261455"/>
+        <c:axId val="270990447"/>
+        <c:axId val="272715967"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1692153039"/>
+        <c:axId val="270990447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,7 +5287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1604261455"/>
+        <c:crossAx val="272715967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5169,7 +5295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1604261455"/>
+        <c:axId val="272715967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5306,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1692153039"/>
+        <c:crossAx val="270990447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5244,7 +5370,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3913CC6E-515B-49E2-A26B-4175C4639DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2CAFF7-06A7-4D17-83A9-D726C561D85A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5284,13 +5410,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5299,7 +5425,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7F48F7-4DCF-4ED2-B2A2-D066F5208834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273F47F8-F0DF-494B-B81D-33962FC4165E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5461,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF98A65B-5FA2-4BBB-BE83-25E8CA095ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2185A8EB-BBF2-4500-B7E3-DDD061781E8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5361,13 +5487,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5376,7 +5502,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788E15A5-A5BA-4805-8F69-AA3D4922E686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825137FF-5476-4D9C-AD4E-9FBDCE01623C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5412,7 +5538,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34A626B-4508-4DDC-BF27-BEA598120CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18501964-02C1-4826-B953-8F2F1E6AC64A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5453,7 +5579,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF3D7BE-F560-4CE2-AA4C-6B6C1E616D99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33242CAA-D2B2-4AAB-BD71-1004E49A14A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5620,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EFA0F1-D0FD-46B2-BA41-2B7BDE855741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF18ED2-6EC0-44E4-A1AA-A94CE142D4B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5535,7 +5661,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBF2DB2-A3B3-4332-91F5-B2178D43B662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091E1F72-50A5-4C31-85A0-2D73A792A044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5557,7 +5683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43340.943493865743" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{9812A2E7-FE4A-4FFB-8EBC-86AAB9E68DD1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43354.988956018518" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{FE5F183B-4E19-4003-A4A2-9E48D99F3351}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:V8" sheet="Computers"/>
   </cacheSource>
@@ -5645,7 +5771,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43340.94351365741" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="22" xr:uid="{B8F6D185-48BC-465E-BABF-56FCFBFF7AE2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43354.98897395833" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="22" xr:uid="{0A281B4D-3D54-4E97-8BB5-1B78690F71BE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C23" sheet="Computer SPNs"/>
   </cacheSource>
@@ -5680,7 +5806,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43340.943522106485" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="38" xr:uid="{B2A49023-63E3-427D-AE15-7CD9BB5D6CB1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43354.988981712966" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="38" xr:uid="{B16FDAF6-4416-4F27-9395-D5598378E46C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D39" sheet="Group Members"/>
   </cacheSource>
@@ -5724,7 +5850,237 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="613012064"/>
+      <x14:pivotCacheDefinition pivotCacheId="484919511"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43354.988996064814" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{41CAC974-7E2D-40CE-B2E3-521ED1A0FB5B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:V8" sheet="Computers"/>
+  </cacheSource>
+  <cacheFields count="22">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="DNSHostName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Enabled" numFmtId="0">
+      <sharedItems count="1">
+        <b v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IPv4Address" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Operating System" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Logon Age (days)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="163"/>
+    </cacheField>
+    <cacheField name="Password Age (days)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="163"/>
+    </cacheField>
+    <cacheField name="Dormant (&gt; 90 days)" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Password Age (&gt; 30 days)" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Delegation Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Delegation Protocol" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Delegation Services" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="UserName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Primary Group ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="515" maxValue="516"/>
+    </cacheField>
+    <cacheField name="SID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SIDHistory" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Last Logon Date" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-03-18T18:08:05" maxDate="2018-08-28T22:32:49"/>
+    </cacheField>
+    <cacheField name="Password LastSet" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-03-18T18:08:05" maxDate="2018-08-12T05:14:22"/>
+    </cacheField>
+    <cacheField name="whenCreated" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-03-16T17:22:29" maxDate="2018-07-11T19:49:58"/>
+    </cacheField>
+    <cacheField name="whenChanged" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-08-08T18:11:12" maxDate="2018-08-28T22:32:49"/>
+    </cacheField>
+    <cacheField name="Distinguished Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant Mahajan" refreshedDate="43354.989023032409" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="19" xr:uid="{0EECD628-861C-4769-9F62-CCEFCD15DADF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AQ20" sheet="Users"/>
+  </cacheSource>
+  <cacheFields count="43">
+    <cacheField name="UserName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Enabled" numFmtId="0">
+      <sharedItems count="2">
+        <b v="1"/>
+        <b v="0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Must Change Password at Logon" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Cannot Change Password" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Password Never Expires" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Reversible Password Encryption" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Smartcard Logon Required" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Delegation Permitted" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Kerberos DES Only" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Kerberos RC4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Kerberos AES-128bit" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Kerberos AES-256bit" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Does Not Require Pre Auth" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Never Logged in" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Logon Age (days)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="26"/>
+    </cacheField>
+    <cacheField name="Password Age (days)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="165"/>
+    </cacheField>
+    <cacheField name="Dormant (&gt; 90 days)" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Password Age (&gt; 42 days)" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Account Locked Out" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Password Expired" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Password Not Required" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Delegation Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Delegation Protocol" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Delegation Services" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Logon Workstations" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="AdminCount" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Primary GroupID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="512" maxValue="519"/>
+    </cacheField>
+    <cacheField name="SID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SIDHistory" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Last Logon Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-08-02T16:29:59" maxDate="2018-08-28T22:34:37"/>
+    </cacheField>
+    <cacheField name="Password LastSet" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-03-16T17:22:29" maxDate="2018-08-16T03:27:57"/>
+    </cacheField>
+    <cacheField name="Account Expiration Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-05-16T00:00:00" maxDate="2018-08-14T00:00:00"/>
+    </cacheField>
+    <cacheField name="Account Expiration (days)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-104" maxValue="-15"/>
+    </cacheField>
+    <cacheField name="Email" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="HomeDirectory" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ProfilePath" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ScriptPath" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="whenCreated" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-03-16T17:21:13" maxDate="2018-03-21T17:48:25"/>
+    </cacheField>
+    <cacheField name="whenChanged" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-03-16T17:21:13" maxDate="2018-08-28T22:34:37"/>
+    </cacheField>
+    <cacheField name="DistinguishedName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="CanonicalName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6251,8 +6607,1292 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <s v="DC1"/>
+    <s v="DC1.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.10"/>
+    <s v="Windows Server 2016 Datacenter Evaluation 10.0 (14393)"/>
+    <n v="0"/>
+    <n v="26"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="DC1$"/>
+    <n v="516"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1000"/>
+    <m/>
+    <m/>
+    <d v="2018-08-28T22:32:49"/>
+    <d v="2018-08-02T16:24:06"/>
+    <d v="2018-03-16T17:22:29"/>
+    <d v="2018-08-28T22:32:49"/>
+    <s v="CN=DC1,OU=Domain Controllers,DC=sos,DC=labs"/>
+  </r>
+  <r>
+    <s v="WEV"/>
+    <s v="WEV.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.102"/>
+    <s v="Windows Server 2016 Standard Evaluation 10.0 (14393)"/>
+    <n v="19"/>
+    <n v="16"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="WEV$"/>
+    <n v="515"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1128"/>
+    <m/>
+    <m/>
+    <d v="2018-08-09T07:20:14"/>
+    <d v="2018-08-12T05:14:22"/>
+    <d v="2018-07-11T19:49:58"/>
+    <d v="2018-08-12T05:14:22"/>
+    <s v="CN=WEV,CN=Computers,DC=sos,DC=labs"/>
+  </r>
+  <r>
+    <s v="WIN10"/>
+    <s v="Win10.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.101"/>
+    <s v="Windows 10 Pro 10.0 (10240)"/>
+    <n v="144"/>
+    <n v="144"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="Unconstrained"/>
+    <s v="Kerberos"/>
+    <s v="Any"/>
+    <s v="WIN10$"/>
+    <n v="515"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1126"/>
+    <m/>
+    <s v="Unconstrained Delegation"/>
+    <d v="2018-04-05T23:53:48"/>
+    <d v="2018-04-05T23:53:48"/>
+    <d v="2018-04-05T23:53:48"/>
+    <d v="2018-08-08T18:59:20"/>
+    <s v="CN=WIN10,OU=Workstations,DC=sos,DC=labs"/>
+  </r>
+  <r>
+    <s v="WIN10X64"/>
+    <s v="Win10x64.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.104"/>
+    <s v="Windows 10 Enterprise Evaluation 10.0 (16299)"/>
+    <n v="152"/>
+    <n v="152"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="Constrained"/>
+    <s v="Any"/>
+    <s v="www/DC1.sos.labs/sos.labs,www/DC1.sos.labs,www/DC1,www/DC1.sos.labs/sos,www/DC1/sos,cifs/Win8-1x64.sos.labs,cifs/WIN8-1X64"/>
+    <s v="WIN10X64$"/>
+    <n v="515"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1125"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1000,S-1-5-21-2872888145-3513486857-3924934394-1126"/>
+    <s v="Constrained Delegation, Any and SIDHistory"/>
+    <d v="2018-03-28T23:29:04"/>
+    <d v="2018-03-28T23:29:03"/>
+    <d v="2018-03-28T23:29:03"/>
+    <d v="2018-08-08T18:58:21"/>
+    <s v="CN=WIN10X64,OU=Workstations,DC=sos,DC=labs"/>
+  </r>
+  <r>
+    <s v="WIN7X64-OFFICE"/>
+    <s v="WIN7X64-OFFICE.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.103"/>
+    <s v="Windows 7 Professional N Service Pack 1 6.1 (7601)"/>
+    <n v="12"/>
+    <n v="42"/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="WIN7X64-OFFICE$"/>
+    <n v="515"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1117"/>
+    <m/>
+    <m/>
+    <d v="2018-08-16T11:05:48"/>
+    <d v="2018-07-17T14:29:22"/>
+    <d v="2018-03-18T17:56:38"/>
+    <d v="2018-08-16T11:05:48"/>
+    <s v="CN=WIN7X64-OFFICE,OU=Workstations,DC=sos,DC=labs"/>
+  </r>
+  <r>
+    <s v="WIN7X86"/>
+    <s v="WIN7X86.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.101"/>
+    <s v="Windows 7 Professional N Service Pack 1 6.1 (7601)"/>
+    <n v="20"/>
+    <n v="20"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="WIN7X86$"/>
+    <n v="515"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1116"/>
+    <m/>
+    <m/>
+    <d v="2018-08-08T18:11:10"/>
+    <d v="2018-08-08T18:11:10"/>
+    <d v="2018-03-18T17:32:30"/>
+    <d v="2018-08-08T18:11:12"/>
+    <s v="CN=WIN7X86,OU=Workstations,DC=sos,DC=labs"/>
+  </r>
+  <r>
+    <s v="WIN8-1X64"/>
+    <s v="Win8-1x64.sos.labs"/>
+    <x v="0"/>
+    <s v="192.168.9.103"/>
+    <s v="Windows 8.1 Pro 6.3 (9600)"/>
+    <n v="163"/>
+    <n v="163"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="Constrained"/>
+    <s v="Kerberos"/>
+    <s v="http/DC1.sos.labs/sos.labs,http/DC1.sos.labs,http/DC1,http/DC1.sos.labs/sos,http/DC1/sos"/>
+    <s v="WIN8-1X64$"/>
+    <n v="515"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1118"/>
+    <m/>
+    <s v="Constrained Delegation, Kerberos"/>
+    <d v="2018-03-18T18:08:05"/>
+    <d v="2018-03-18T18:08:05"/>
+    <d v="2018-03-18T18:08:05"/>
+    <d v="2018-08-08T18:56:45"/>
+    <s v="CN=WIN8-1X64,OU=Workstations,DC=sos,DC=labs"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <s v="Administrator"/>
+    <s v="Administrator"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-500"/>
+    <m/>
+    <s v="Built-in account for administering the computer/domain"/>
+    <d v="2018-08-28T22:34:37"/>
+    <d v="2018-08-16T03:27:57"/>
+    <m/>
+    <m/>
+    <s v="administrator@sos.labs"/>
+    <s v="C:\Users\Administrator"/>
+    <s v="\\DC1\Users\Administrators"/>
+    <s v="logon.bat"/>
+    <d v="2018-03-16T17:21:13"/>
+    <d v="2018-08-28T22:34:37"/>
+    <s v="CN=Administrator,CN=Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Users/Administrator"/>
+  </r>
+  <r>
+    <s v="backdoor"/>
+    <s v="Back Door"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="160"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="512"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1123"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-512"/>
+    <s v="Administrator password is P@ssw0rd!"/>
+    <m/>
+    <d v="2018-03-21T16:45:55"/>
+    <d v="2018-08-13T00:00:00"/>
+    <n v="-15"/>
+    <s v="backdoor@sos.labs"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T16:45:55"/>
+    <d v="2018-08-08T18:59:50"/>
+    <s v="CN=Back Door,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/Back Door"/>
+  </r>
+  <r>
+    <s v="bo"/>
+    <s v="B O"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="160"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1120"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T16:43:23"/>
+    <d v="2018-06-17T00:00:00"/>
+    <n v="-72"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T16:43:23"/>
+    <d v="2018-05-17T19:25:30"/>
+    <s v="CN=B O,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/B O"/>
+  </r>
+  <r>
+    <s v="co"/>
+    <s v="C O"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="160"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="DC1"/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1122"/>
+    <m/>
+    <s v="Log On To configured"/>
+    <m/>
+    <d v="2018-03-21T16:45:13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T16:45:13"/>
+    <d v="2018-08-08T19:02:49"/>
+    <s v="CN=C O,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/C O"/>
+  </r>
+  <r>
+    <s v="cp"/>
+    <s v="C P"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="160"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1121"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T16:44:16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T16:44:16"/>
+    <d v="2018-08-08T19:01:44"/>
+    <s v="CN=C P,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/C P"/>
+  </r>
+  <r>
+    <s v="da"/>
+    <s v="D A"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="0"/>
+    <n v="20"/>
+    <n v="165"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="512"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1104"/>
+    <m/>
+    <m/>
+    <d v="2018-08-08T17:52:54"/>
+    <d v="2018-03-16T17:32:30"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-16T17:32:30"/>
+    <d v="2018-08-08T19:01:20"/>
+    <s v="CN=D A,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/D A"/>
+  </r>
+  <r>
+    <s v="dcadmin"/>
+    <s v="DC Admin"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="165"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1103"/>
+    <m/>
+    <s v="AES128"/>
+    <m/>
+    <d v="2018-03-16T17:31:38"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-16T17:31:38"/>
+    <d v="2018-08-08T19:00:59"/>
+    <s v="CN=DC Admin,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/DC Admin"/>
+  </r>
+  <r>
+    <s v="DefaultAccount"/>
+    <s v="DefaultAccount"/>
+    <x v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-503"/>
+    <m/>
+    <s v="A user account managed by the system."/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-16T17:21:13"/>
+    <d v="2018-03-16T17:21:13"/>
+    <s v="CN=DefaultAccount,CN=Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Users/DefaultAccount"/>
+  </r>
+  <r>
+    <s v="ea"/>
+    <s v="E A"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="165"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="519"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1105"/>
+    <m/>
+    <s v="Enterprise Admin, AES256"/>
+    <m/>
+    <d v="2018-03-16T18:04:36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-16T18:04:36"/>
+    <d v="2018-08-08T19:00:39"/>
+    <s v="CN=E A,OU=Priv Accounts,DC=sos,DC=labs"/>
+    <s v="sos.labs/Priv Accounts/E A"/>
+  </r>
+  <r>
+    <s v="Guest"/>
+    <s v="Guest"/>
+    <x v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="514"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-501"/>
+    <m/>
+    <s v="Built-in account for guest access to the computer/domain"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-16T17:21:13"/>
+    <d v="2018-03-16T17:21:13"/>
+    <s v="CN=Guest,CN=Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Users/Guest"/>
+  </r>
+  <r>
+    <s v="krbtgt"/>
+    <s v="krbtgt"/>
+    <x v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="165"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-502"/>
+    <m/>
+    <s v="Key Distribution Center Service Account"/>
+    <m/>
+    <d v="2018-03-16T17:22:29"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-16T17:22:29"/>
+    <d v="2018-03-16T17:37:40"/>
+    <s v="CN=krbtgt,CN=Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Users/krbtgt"/>
+  </r>
+  <r>
+    <s v="sshd"/>
+    <s v="sshd"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="160"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1124"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T17:48:25"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-21T17:48:25"/>
+    <d v="2018-03-21T17:48:25"/>
+    <s v="CN=sshd,CN=Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Users/sshd"/>
+  </r>
+  <r>
+    <s v="user"/>
+    <s v="User"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="89"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="Unconstrained"/>
+    <s v="Kerberos"/>
+    <s v="Any"/>
+    <s v="WIN7X86"/>
+    <n v="1"/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1115"/>
+    <m/>
+    <s v="Member of Administrators"/>
+    <m/>
+    <d v="2018-05-31T12:53:57"/>
+    <m/>
+    <m/>
+    <s v="user@sos.labs"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:24:26"/>
+    <d v="2018-08-08T19:03:11"/>
+    <s v="CN=User,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User"/>
+  </r>
+  <r>
+    <s v="user1"/>
+    <s v="User 1"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="0"/>
+    <n v="26"/>
+    <n v="88"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1108"/>
+    <m/>
+    <s v="Password Never Expires"/>
+    <d v="2018-08-02T16:29:59"/>
+    <d v="2018-05-31T22:46:06"/>
+    <m/>
+    <m/>
+    <s v="user1@sos.labs"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:19:47"/>
+    <d v="2018-08-08T19:03:19"/>
+    <s v="CN=User 1,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User 1"/>
+  </r>
+  <r>
+    <s v="user2"/>
+    <s v="User 2"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="0"/>
+    <n v="24"/>
+    <n v="47"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1109"/>
+    <m/>
+    <s v="Cannot Change Password"/>
+    <d v="2018-08-04T04:10:04"/>
+    <d v="2018-07-12T16:49:55"/>
+    <m/>
+    <m/>
+    <s v="user2@sos.labs"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:20:21"/>
+    <d v="2018-08-08T19:03:30"/>
+    <s v="CN=User 2,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User 2"/>
+  </r>
+  <r>
+    <s v="user3"/>
+    <s v="User 3"/>
+    <x v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1110"/>
+    <m/>
+    <s v="Must Change Password at Next Logon"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:21:24"/>
+    <d v="2018-03-18T17:21:39"/>
+    <s v="CN=User 3,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User 3"/>
+  </r>
+  <r>
+    <s v="user4"/>
+    <s v="User 4"/>
+    <x v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="163"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1111"/>
+    <m/>
+    <s v="Disabled"/>
+    <m/>
+    <d v="2018-03-18T17:22:05"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:22:05"/>
+    <d v="2018-03-18T17:22:11"/>
+    <s v="CN=User 4,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User 4"/>
+  </r>
+  <r>
+    <s v="user5"/>
+    <s v="User 5"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="0"/>
+    <b v="1"/>
+    <m/>
+    <n v="163"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1112"/>
+    <m/>
+    <s v="Store password using Reversible Encryption"/>
+    <m/>
+    <d v="2018-03-18T17:22:32"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:22:32"/>
+    <d v="2018-03-18T17:22:59"/>
+    <s v="CN=User 5,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User 5"/>
+  </r>
+  <r>
+    <s v="user6"/>
+    <s v="User 6"/>
+    <x v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <n v="163"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="1"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="513"/>
+    <s v="S-1-5-21-2872888145-3513486857-3924934394-1113"/>
+    <m/>
+    <s v="Do not require Kerberos PreAuth"/>
+    <m/>
+    <d v="2018-03-18T17:23:18"/>
+    <d v="2018-05-16T00:00:00"/>
+    <n v="-104"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2018-03-18T17:23:18"/>
+    <d v="2018-05-17T18:41:40"/>
+    <s v="CN=User 6,OU=Lab Users,DC=sos,DC=labs"/>
+    <s v="sos.labs/Lab Users/User 6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE036EF1-403A-44E9-97E6-CBD8BDA61F8A}" name="Group Members" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Group Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31392C09-4FF7-4164-BC6C-38CD6EF19BF2}" name="User Status" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Type">
+  <location ref="A2:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="43">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item n="Disabled" x="1"/>
+        <item n="Enabled" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percentage" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF6ED1F5-57B1-406A-9B11-16FB7971F890}" name="User Status" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Type">
+  <location ref="A2:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item n="Enabled" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percentage" fld="12" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="5">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25C8CEC0-F42B-4ECB-BF06-B4D594F473FE}" name="Group Members" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Group Name">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -6353,7 +7993,7 @@
     <dataField name="Count (Not-Recursive)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -6362,7 +8002,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -6371,10 +8011,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -6398,8 +8038,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{29B64EA2-BF56-41A5-925E-FAD07D357E3B}" name="Computer SPNs" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Computer Role">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A559F931-52BA-4C0F-BF9A-F09291558220}" name="Computer SPNs" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Computer Role">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -6493,8 +8133,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBD8520A-751F-4209-B68A-A8B136EF9B2B}" name="Operating Systems" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Operating System">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{293857B3-926E-4139-AE4D-9AF0E0CC3A2C}" name="Operating Systems" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Operating System">
   <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -6592,8 +8232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{56219E19-09E5-4D39-84DE-EA8AAD3EDBA0}" name="Table22" displayName="Table22" ref="A1:AQ20" totalsRowShown="0">
-  <autoFilter ref="A1:AQ20" xr:uid="{AE3C38B4-5B2B-49A6-985C-F112BC7424AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{DD5AB839-DEBE-4210-8E9B-C410E410CE53}" name="Table22" displayName="Table22" ref="A1:AQ20" totalsRowShown="0">
+  <autoFilter ref="A1:AQ20" xr:uid="{AA34C9F5-D4EF-48E7-8DF2-32998E7046C7}">
     <filterColumn colId="2">
       <filters>
         <filter val="TRUE"/>
@@ -6604,411 +8244,411 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{4D0AE337-39A5-4B26-B892-6E3D12A686CC}" name="UserName"/>
-    <tableColumn id="2" xr3:uid="{6E885D64-B13D-4137-9802-19613B5D7C7B}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{48C1C275-3DEB-4FDB-859A-A98CC5E3ADF3}" name="Enabled"/>
-    <tableColumn id="4" xr3:uid="{C3A557B1-D5F8-493F-B7AC-AA6CA046183E}" name="Must Change Password at Logon"/>
-    <tableColumn id="5" xr3:uid="{6D1760CE-B3F8-4564-B424-8E360E9516D2}" name="Cannot Change Password"/>
-    <tableColumn id="6" xr3:uid="{A7140FC7-698A-4BB1-ACB2-DAB02C306732}" name="Password Never Expires"/>
-    <tableColumn id="7" xr3:uid="{6031E76D-5DDA-4735-8BFB-E3F75546EBF7}" name="Reversible Password Encryption"/>
-    <tableColumn id="8" xr3:uid="{55CBAD43-D17F-40D6-948D-C64D54EEBB45}" name="Smartcard Logon Required"/>
-    <tableColumn id="9" xr3:uid="{14256DFD-AFE6-4155-9184-9562BECE88CA}" name="Delegation Permitted"/>
-    <tableColumn id="10" xr3:uid="{7B002213-F64D-436A-9885-4BD68D9E8135}" name="Kerberos DES Only"/>
-    <tableColumn id="11" xr3:uid="{5C8B3AE2-F03D-4E58-92C4-39AE3D5895F1}" name="Kerberos RC4"/>
-    <tableColumn id="12" xr3:uid="{72FDFD6B-1FDB-4BD9-8FD6-95BE1D143727}" name="Kerberos AES-128bit"/>
-    <tableColumn id="13" xr3:uid="{9875BAA3-F960-47AC-A8C8-26C4A5052D8D}" name="Kerberos AES-256bit"/>
-    <tableColumn id="14" xr3:uid="{E89AA4E5-AEB5-4D9D-A672-8CF4C9236319}" name="Does Not Require Pre Auth"/>
-    <tableColumn id="15" xr3:uid="{E740A0DB-B8DA-4D1A-8746-9DF38E5DAA5D}" name="Never Logged in"/>
-    <tableColumn id="16" xr3:uid="{4BCD5652-14AB-4213-8226-309B067B3F94}" name="Logon Age (days)"/>
-    <tableColumn id="17" xr3:uid="{9485B868-04CC-4439-A0D2-D102C6411C60}" name="Password Age (days)"/>
-    <tableColumn id="18" xr3:uid="{073320A4-6321-449F-8DFB-E10951ACE02E}" name="Dormant (&gt; 90 days)"/>
-    <tableColumn id="19" xr3:uid="{8380B4A9-8310-42A7-B011-59D043B9259D}" name="Password Age (&gt; 42 days)"/>
-    <tableColumn id="20" xr3:uid="{1223F04B-98FA-45D2-8AF5-BB50C7423829}" name="Account Locked Out"/>
-    <tableColumn id="21" xr3:uid="{1010CEF2-5882-4115-AD96-77DDA678C456}" name="Password Expired"/>
-    <tableColumn id="22" xr3:uid="{121FE2B8-FA17-4671-BCFA-48ED5603EF5E}" name="Password Not Required"/>
-    <tableColumn id="23" xr3:uid="{AB22D725-B0ED-41BE-AEF4-ED4413643DC4}" name="Delegation Type"/>
-    <tableColumn id="24" xr3:uid="{83C5BD9F-84DE-4A94-B59F-341DF076F9DB}" name="Delegation Protocol"/>
-    <tableColumn id="25" xr3:uid="{3DA764E7-6C7C-43BF-B705-28B8972F7DBF}" name="Delegation Services"/>
-    <tableColumn id="26" xr3:uid="{66297C46-A2F7-486B-B581-2786DD859252}" name="Logon Workstations"/>
-    <tableColumn id="27" xr3:uid="{EA08BA94-8EDD-4C1A-98D9-72930D998555}" name="AdminCount"/>
-    <tableColumn id="28" xr3:uid="{64439DF2-B00A-40B0-B670-FB344F6F0430}" name="Primary GroupID"/>
-    <tableColumn id="29" xr3:uid="{89F315BC-60B0-4E45-84CD-31BCA9A69FC0}" name="SID"/>
-    <tableColumn id="30" xr3:uid="{C00B4D99-E7C0-4D71-8A02-2E7573659C22}" name="SIDHistory"/>
-    <tableColumn id="31" xr3:uid="{F32A84C7-06D0-4453-8806-A16AECAB1998}" name="Description"/>
-    <tableColumn id="32" xr3:uid="{D7DF6D91-FC60-4670-8468-61D41C1265E1}" name="Last Logon Date"/>
-    <tableColumn id="33" xr3:uid="{15DC1D58-ED99-4EE5-B9D0-8D9C8A70E81F}" name="Password LastSet" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{B5B7166D-D798-4FA2-960A-F49BA63DBD2B}" name="Account Expiration Date"/>
-    <tableColumn id="35" xr3:uid="{7C178C61-0895-435D-8A89-90845EB7A90A}" name="Account Expiration (days)"/>
-    <tableColumn id="36" xr3:uid="{8AF32FF3-ECA9-451C-993F-F53FF286BC83}" name="Email"/>
-    <tableColumn id="37" xr3:uid="{E2086F5F-C9C5-4D54-B0D7-8A8D44ECE8B9}" name="HomeDirectory"/>
-    <tableColumn id="38" xr3:uid="{2F205C5C-E9E7-41BA-9B9C-BAB9DBEEA3AE}" name="ProfilePath"/>
-    <tableColumn id="39" xr3:uid="{7D76C5A7-C915-4EE7-80C7-BE10A507B0BD}" name="ScriptPath"/>
-    <tableColumn id="40" xr3:uid="{96E9051B-337D-4BE4-9FEE-38EC65B57251}" name="whenCreated" dataDxfId="5"/>
-    <tableColumn id="41" xr3:uid="{59026671-1AD2-441B-962E-3424AE354C10}" name="whenChanged" dataDxfId="4"/>
-    <tableColumn id="42" xr3:uid="{A857E615-4D91-40B7-9CAA-2C326DD88208}" name="DistinguishedName"/>
-    <tableColumn id="43" xr3:uid="{9CEF745F-8B31-4370-9DCC-A4C7AE18F721}" name="CanonicalName"/>
+    <tableColumn id="1" xr3:uid="{D616492F-B49C-42BB-9A5C-00BFBC140BAE}" name="UserName"/>
+    <tableColumn id="2" xr3:uid="{2352ABE0-CD38-4582-AA28-1CAE1C8AD82B}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{A7A450A8-57FD-430F-AD63-397DF50726DD}" name="Enabled"/>
+    <tableColumn id="4" xr3:uid="{57CFF144-AFD2-4A42-8945-206AA89E0511}" name="Must Change Password at Logon"/>
+    <tableColumn id="5" xr3:uid="{26070148-2A41-4D4A-A8BB-FB7A371702BF}" name="Cannot Change Password"/>
+    <tableColumn id="6" xr3:uid="{E0F2B617-5780-4705-A470-BDB5904AC703}" name="Password Never Expires"/>
+    <tableColumn id="7" xr3:uid="{3FB7C804-9A73-401E-8387-6741BD35E714}" name="Reversible Password Encryption"/>
+    <tableColumn id="8" xr3:uid="{2A9BE478-08AF-45A9-8382-710FB32CA171}" name="Smartcard Logon Required"/>
+    <tableColumn id="9" xr3:uid="{4091320B-72E6-4E0B-84FA-56CB9D0FC1E0}" name="Delegation Permitted"/>
+    <tableColumn id="10" xr3:uid="{00646359-F66B-4C3B-843A-EA35997DA7BF}" name="Kerberos DES Only"/>
+    <tableColumn id="11" xr3:uid="{D774262C-0F11-45CE-AC68-8B3390171AF7}" name="Kerberos RC4"/>
+    <tableColumn id="12" xr3:uid="{C292356B-A8F7-42D5-A8E6-54C119D81BF8}" name="Kerberos AES-128bit"/>
+    <tableColumn id="13" xr3:uid="{45066A87-8A43-4857-8391-20E835E43CBC}" name="Kerberos AES-256bit"/>
+    <tableColumn id="14" xr3:uid="{9F0A0ED6-50B3-4B7F-8AEE-D1E94A0EF20C}" name="Does Not Require Pre Auth"/>
+    <tableColumn id="15" xr3:uid="{8AF8B75F-8D03-4680-BF0B-A4BF08FAD9BF}" name="Never Logged in"/>
+    <tableColumn id="16" xr3:uid="{E3FB59A8-41E2-4D17-8A8A-6CF742ED59D8}" name="Logon Age (days)"/>
+    <tableColumn id="17" xr3:uid="{5F4AED68-BED4-4C92-9B74-0D4D16AD7B52}" name="Password Age (days)"/>
+    <tableColumn id="18" xr3:uid="{69DD5F1C-0FFE-4A82-BD0D-DE7AAB331321}" name="Dormant (&gt; 90 days)"/>
+    <tableColumn id="19" xr3:uid="{6E0644E8-A7FE-454B-8B6A-A69E89ECC3BC}" name="Password Age (&gt; 42 days)"/>
+    <tableColumn id="20" xr3:uid="{087A4F97-5DC3-4DDE-AB24-92AAEBA5A5E7}" name="Account Locked Out"/>
+    <tableColumn id="21" xr3:uid="{35FF7E97-C86F-4B43-B2E5-8C0518405DAF}" name="Password Expired"/>
+    <tableColumn id="22" xr3:uid="{2D4C0189-33E6-48BA-BE94-2151D0903049}" name="Password Not Required"/>
+    <tableColumn id="23" xr3:uid="{776D5353-6381-429C-9902-39B76AC2D199}" name="Delegation Type"/>
+    <tableColumn id="24" xr3:uid="{A8A48146-217C-4CC9-947A-B5895A11313E}" name="Delegation Protocol"/>
+    <tableColumn id="25" xr3:uid="{E6281406-A7E4-467E-8FE6-839C1AF446CB}" name="Delegation Services"/>
+    <tableColumn id="26" xr3:uid="{CDF5841C-25DF-49BD-B560-984DE17B58C7}" name="Logon Workstations"/>
+    <tableColumn id="27" xr3:uid="{6CA9012C-8C56-4BED-B5CA-43F1D9DC0665}" name="AdminCount"/>
+    <tableColumn id="28" xr3:uid="{854D7038-AD79-4169-9F88-2681DB0CCBFD}" name="Primary GroupID"/>
+    <tableColumn id="29" xr3:uid="{97E2D363-D810-4E8D-BD50-3E9DE4423419}" name="SID"/>
+    <tableColumn id="30" xr3:uid="{1B6D6AE9-1C01-47DB-B9C2-5DFC665F5D71}" name="SIDHistory"/>
+    <tableColumn id="31" xr3:uid="{8F753EF8-9493-4CF8-B346-D3D84F5E4926}" name="Description"/>
+    <tableColumn id="32" xr3:uid="{B9D0565B-F184-4EF6-B361-03C8F9F327E4}" name="Last Logon Date"/>
+    <tableColumn id="33" xr3:uid="{F4227ECD-70A2-4266-823E-5853816C3D71}" name="Password LastSet" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{A21292EB-A136-43AC-A0A6-81361AC34B44}" name="Account Expiration Date"/>
+    <tableColumn id="35" xr3:uid="{DCEA4A09-C081-4836-9A3E-0BEE476220AE}" name="Account Expiration (days)"/>
+    <tableColumn id="36" xr3:uid="{2FA1CB5A-E242-4F7C-A9E7-75CCD63EB8D3}" name="Email"/>
+    <tableColumn id="37" xr3:uid="{980C244D-C4F0-4219-AB7A-E3B34B8C512F}" name="HomeDirectory"/>
+    <tableColumn id="38" xr3:uid="{661D9047-BAA9-4210-9A5D-A0C64A9CE980}" name="ProfilePath"/>
+    <tableColumn id="39" xr3:uid="{235D5981-D55C-47DF-8C7B-F50B4974F077}" name="ScriptPath"/>
+    <tableColumn id="40" xr3:uid="{0C0363D7-B172-4395-BC39-FBCFE8E8A099}" name="whenCreated" dataDxfId="11"/>
+    <tableColumn id="41" xr3:uid="{D39D1DD6-B9C7-4BF9-BBD9-04DA96CE55AB}" name="whenChanged" dataDxfId="10"/>
+    <tableColumn id="42" xr3:uid="{ECDF6146-BB85-4E34-BF11-05B89E849BBE}" name="DistinguishedName"/>
+    <tableColumn id="43" xr3:uid="{E3C5B4FB-C87D-4276-848F-79D3EDD36843}" name="CanonicalName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2DC0C378-2205-4B37-9AF1-9B8B8E028DEB}" name="Table13" displayName="Table13" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{5B000949-7999-4943-B28B-8013B2D09388}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6974ED17-A63E-4B8A-A2DB-0CB2903B7BF9}" name="Table13" displayName="Table13" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{88B59736-6344-4383-801B-ECF86F99683E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24183A22-D9DB-4F86-95FB-CC41FCA25EC3}" name="Distinguished Name"/>
-    <tableColumn id="2" xr3:uid="{6B5E55B0-B0ED-4E37-8230-95C4F472FF93}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{C1F8E174-9B06-4C76-A405-B457220987D9}" name="whenCreated" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{1156F354-DB19-4F32-9E93-769C7221FDBE}" name="Recovery Key ID"/>
-    <tableColumn id="5" xr3:uid="{8DB342B1-28C8-4C31-B5B4-B100ACAC3790}" name="Recovery Key"/>
-    <tableColumn id="6" xr3:uid="{889CCA97-D7B5-46B0-A7AF-4EF607B46A84}" name="Volume GUID"/>
-    <tableColumn id="7" xr3:uid="{3B6D06E6-A5D1-42BB-A96F-3B851D96CC78}" name="msTPM-OwnerInformation"/>
-    <tableColumn id="8" xr3:uid="{3F023239-6203-410E-81A4-E0A31E973FFB}" name="msTPM-TpmInformationForComputer"/>
-    <tableColumn id="9" xr3:uid="{945B4E5C-C654-4E26-BC13-B6A9C0C82AA5}" name="TPM Owner Password"/>
+    <tableColumn id="1" xr3:uid="{BCE61A2C-9D6B-4925-864B-4260C2E2A0DD}" name="Distinguished Name"/>
+    <tableColumn id="2" xr3:uid="{4E695AF5-5098-4C13-BF2D-598CA27B3FC0}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{7AE0C174-47AB-4443-8052-9474B58CBE73}" name="whenCreated" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{DBCDBA5F-A467-4E2C-A2DE-B01D1FD76ADC}" name="Recovery Key ID"/>
+    <tableColumn id="5" xr3:uid="{22B2650D-AFC8-47CD-B623-484B74CC6800}" name="Recovery Key"/>
+    <tableColumn id="6" xr3:uid="{DC18D8DA-C3E1-4887-8D69-9299F01DEF54}" name="Volume GUID"/>
+    <tableColumn id="7" xr3:uid="{EA2F9AC3-D185-454E-9931-E0E797B3949D}" name="msTPM-OwnerInformation"/>
+    <tableColumn id="8" xr3:uid="{9F869797-8A65-4E6A-A78F-10AB31C4AA8D}" name="msTPM-TpmInformationForComputer"/>
+    <tableColumn id="9" xr3:uid="{5CBE09DE-8761-4F77-AC48-D990F9D86923}" name="TPM Owner Password"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9DFF4295-7C17-491A-BC02-09D38AD9A717}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0">
-  <autoFilter ref="A1:G6" xr:uid="{CB704C5E-7452-4B74-A8C8-78D780D21BEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7539AEB0-CFF4-4568-BE6C-2C3DDCDA5F4B}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{0994E408-A6B3-44B3-8A99-D540E6D6221D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2959C67B-FC25-4D8D-99BA-84C8935E2AA4}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{DAD033E3-3CBD-4A7C-9C93-47E309F52BBD}" name="RecordCount"/>
-    <tableColumn id="3" xr3:uid="{F652F7DB-4DE9-4016-9E7D-32EA6E5B9313}" name="USNCreated"/>
-    <tableColumn id="4" xr3:uid="{355DD909-AE29-407D-A26C-F7B2BEE79BA9}" name="USNChanged"/>
-    <tableColumn id="5" xr3:uid="{19E4EEDB-BF73-4F20-B2BD-FCEA556A3832}" name="whenCreated" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{906B1AF8-8595-43DF-B48D-99AEE9A7EC6A}" name="whenChanged" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{366AC7A6-4461-4D18-99C9-7BA13A322C31}" name="DistinguishedName"/>
+    <tableColumn id="1" xr3:uid="{2F12C66F-E532-4A53-BC31-8901E89393C1}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0D2FD62C-A553-4F34-96CE-62FEFAB6F22F}" name="RecordCount"/>
+    <tableColumn id="3" xr3:uid="{145058A5-01DA-4BAA-BA95-FB52D4891EB0}" name="USNCreated"/>
+    <tableColumn id="4" xr3:uid="{B4AE5160-C995-4EB1-8E59-FCF6D956B5B9}" name="USNChanged"/>
+    <tableColumn id="5" xr3:uid="{172ADCBB-F497-4C0B-9FF2-43DC2B9A5359}" name="whenCreated" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{D78EC50C-99D2-4542-B454-ADC3840BE091}" name="whenChanged" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{A050081D-C865-4E20-994D-12767B3256B9}" name="DistinguishedName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{79E98F50-31FB-47B7-8966-D2BDB2EF27B4}" name="Table11" displayName="Table11" ref="A1:L67" totalsRowShown="0">
-  <autoFilter ref="A1:L67" xr:uid="{DD629759-FFA2-4753-BA04-B215FCED88B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6A5D6068-2D54-4E21-8662-A7BC61AA7C99}" name="Table11" displayName="Table11" ref="A1:L67" totalsRowShown="0">
+  <autoFilter ref="A1:L67" xr:uid="{12732913-6AD1-42F1-BF25-4D4728ED1341}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B0255C81-EFF8-4BCB-9D37-C02D6CE80750}" name="ZoneName"/>
-    <tableColumn id="2" xr3:uid="{872F0365-DDD1-4443-9C8A-26FAB2762B83}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{915347D4-5AAF-48F3-A13E-1AF3D5C6D568}" name="RecordType"/>
-    <tableColumn id="4" xr3:uid="{D1A7A257-B0EE-4A79-B2FA-AD1A7D7CFD86}" name="Data"/>
-    <tableColumn id="5" xr3:uid="{C7073870-E58B-4676-A541-67530A649026}" name="TTL"/>
-    <tableColumn id="6" xr3:uid="{594FBADB-928F-4BFB-A995-4C13A5775CA7}" name="Age"/>
-    <tableColumn id="7" xr3:uid="{009E5E68-2B06-4D6E-AE02-024F5A5002C1}" name="TimeStamp" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{D8F2A979-8B9F-4260-ACD3-3E87E57EED5E}" name="UpdatedAtSerial"/>
-    <tableColumn id="9" xr3:uid="{7293E238-7EC0-4EC2-82BD-E3A5FA3457FA}" name="whenCreated" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{013AAAC5-7520-402D-98D0-9747FB1C392D}" name="whenChanged" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{DDF61B69-96F7-4FFA-903A-A437022F628B}" name="showInAdvancedViewOnly"/>
-    <tableColumn id="12" xr3:uid="{8B30A9FB-E36A-45A7-A334-0A1747128DC2}" name="DistinguishedName"/>
+    <tableColumn id="1" xr3:uid="{D841A0EC-4213-4D99-85EF-5B7AA0FC2A98}" name="ZoneName"/>
+    <tableColumn id="2" xr3:uid="{FA26DD0A-64FA-412E-B418-EDE3E9DEE022}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{0941B953-89EC-4412-8A4F-17037D73CAF8}" name="RecordType"/>
+    <tableColumn id="4" xr3:uid="{C08909E6-BACB-4416-8BF0-A55B561444D0}" name="Data"/>
+    <tableColumn id="5" xr3:uid="{938E810A-C76E-4172-AA84-51AC3871EADF}" name="TTL"/>
+    <tableColumn id="6" xr3:uid="{6A4CE9EA-D602-44C1-88EA-9307FC3B7694}" name="Age"/>
+    <tableColumn id="7" xr3:uid="{A2E2F606-619D-4E75-A817-8830BA2D26C0}" name="TimeStamp" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{78469429-02D6-4523-90A2-F9ABC02550F8}" name="UpdatedAtSerial"/>
+    <tableColumn id="9" xr3:uid="{987D8B46-4A20-407C-9A3B-20679E0F25AB}" name="whenCreated" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{F28DD5E4-2EB8-4E36-99DD-F5CEC16EAA25}" name="whenChanged" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{DA8AD360-BAE9-4853-B219-40E2335E7956}" name="showInAdvancedViewOnly"/>
+    <tableColumn id="12" xr3:uid="{6C3FCC5E-A002-4445-93C8-668E5E71C058}" name="DistinguishedName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{337105D9-E446-4736-8A7B-B1BF78B67187}" name="Table10" displayName="Table10" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8" xr:uid="{1C68D363-BCAE-425E-9757-6ADD0DA384CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5899488D-A19D-402C-BD6C-949D66E9ED67}" name="Table10" displayName="Table10" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8" xr:uid="{DAD0292D-C659-4B18-8391-38D68837D7F7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5F8C20AE-55E4-4190-84E0-EF6CDAFB735B}" name="DisplayName"/>
-    <tableColumn id="2" xr3:uid="{FAB0F5FA-1135-45A6-8031-7D4FF12DF770}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{6AB87CAD-922A-47F6-B40B-38627DB38926}" name="whenCreated" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{E99EC694-3855-44D0-911B-422614321BA5}" name="whenChanged" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{37AC43E5-09C8-4231-93F1-FD0BB692FA5B}" name="DistinguishedName"/>
-    <tableColumn id="6" xr3:uid="{7C4261AF-2D3A-48E3-9932-89256F626C34}" name="FilePath"/>
+    <tableColumn id="1" xr3:uid="{51AB361C-3E00-4EF1-84DB-66BABB76CFF5}" name="DisplayName"/>
+    <tableColumn id="2" xr3:uid="{7B009599-6251-4A87-9FFB-04BBFADA5375}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{B862C78A-27D8-4BA2-A962-1E9895E62CBB}" name="whenCreated" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{74BBD5D6-1FC9-4D74-992A-2A86617602C0}" name="whenChanged" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{23410818-CDC9-41AF-A1F5-ECAF8E7ABC87}" name="DistinguishedName"/>
+    <tableColumn id="6" xr3:uid="{665581FA-38E1-4621-948A-5168656E22DD}" name="FilePath"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DE02578D-C673-4361-8C7A-8C40242C415F}" name="Table9" displayName="Table9" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2" xr:uid="{F446E9BE-6774-4E66-B45C-BA6545029843}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8788D463-8544-476D-8FA8-16EDD2D82290}" name="Table9" displayName="Table9" ref="A1:S2" totalsRowShown="0">
+  <autoFilter ref="A1:S2" xr:uid="{E5E967DE-777D-4896-9AD2-CFDC2B312F4D}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{AB984EFF-5FC1-42AC-89C7-36008EA4B4FF}" name="Domain"/>
-    <tableColumn id="2" xr3:uid="{7B82D2F2-DA45-4647-8D94-8DF9562BCF95}" name="Site"/>
-    <tableColumn id="3" xr3:uid="{B72F5D8E-ADD0-4E74-A59C-3FAC869BB2C2}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{DB5705C3-2286-4848-A753-050C5C7F2B50}" name="IPv4Address"/>
-    <tableColumn id="5" xr3:uid="{DC5B408A-6260-42A9-A2CA-71321DE625A4}" name="Operating System"/>
-    <tableColumn id="6" xr3:uid="{9228D428-D0F4-45A5-B238-4319DCB612F0}" name="Hostname"/>
-    <tableColumn id="7" xr3:uid="{8C1C8A42-7EB1-4771-A4A0-6D5304E2EE44}" name="Infra"/>
-    <tableColumn id="8" xr3:uid="{6A92CEA1-10F4-4DE5-878A-0E99F441A016}" name="Naming"/>
-    <tableColumn id="9" xr3:uid="{573E75F0-1D8F-431F-B735-919404D5F9AD}" name="Schema"/>
-    <tableColumn id="10" xr3:uid="{7E7699E2-6123-4F07-81B6-4EE4BD24C937}" name="RID"/>
-    <tableColumn id="11" xr3:uid="{E3BE9BBF-F80E-4AA1-8B36-2E43AB0B9B9E}" name="PDC"/>
-    <tableColumn id="12" xr3:uid="{FB08C8DB-ECB3-4320-9DCE-822C4F99A8AE}" name="SMB Port Open"/>
-    <tableColumn id="13" xr3:uid="{FA4F0925-A2E2-4A72-98D9-49926A22C327}" name="SMB1(NT LM 0.12)"/>
-    <tableColumn id="14" xr3:uid="{C88A9BB4-647E-4E0D-A923-22832B3FB47D}" name="SMB2(0x0202)"/>
-    <tableColumn id="15" xr3:uid="{9991106B-58B4-4E14-BB6B-44051467868B}" name="SMB2(0x0210)"/>
-    <tableColumn id="16" xr3:uid="{1A9D1E32-1778-4008-BC17-4FC76E599529}" name="SMB3(0x0300)"/>
-    <tableColumn id="17" xr3:uid="{69ED2594-E8A6-4FD4-A8F1-992E17A888A1}" name="SMB3(0x0302)"/>
-    <tableColumn id="18" xr3:uid="{F45C4134-5D83-486D-A2B1-54EA4F0D22DD}" name="SMB3(0x0311)"/>
-    <tableColumn id="19" xr3:uid="{852A5BEA-1395-440B-806B-BADA2CB889F7}" name="SMB Signing"/>
+    <tableColumn id="1" xr3:uid="{7A14E250-868F-47D1-B816-6473939B11D0}" name="Domain"/>
+    <tableColumn id="2" xr3:uid="{5F91DEF5-1198-41E3-9DE5-90205D353BC6}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{69687430-4B51-4625-BF43-30480F0622C2}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{5DB22A5C-278A-495C-A5C1-15B7E2201E82}" name="IPv4Address"/>
+    <tableColumn id="5" xr3:uid="{7090264E-AB4A-4074-8E86-2F8323B314D4}" name="Operating System"/>
+    <tableColumn id="6" xr3:uid="{0B86018D-7009-4E11-A06E-53D89D69A672}" name="Hostname"/>
+    <tableColumn id="7" xr3:uid="{1F0BC94A-BC59-49F1-B190-C576954EBB1D}" name="Infra"/>
+    <tableColumn id="8" xr3:uid="{7862CD7B-5BB7-4E68-89A3-CD85B2FF7D23}" name="Naming"/>
+    <tableColumn id="9" xr3:uid="{41A034C5-A4CC-49EC-830E-9D81C49CAB32}" name="Schema"/>
+    <tableColumn id="10" xr3:uid="{045FFF42-AEA0-4C61-86B3-47A215978F71}" name="RID"/>
+    <tableColumn id="11" xr3:uid="{76F8BC27-EC97-4D70-B916-0BDCBD816A56}" name="PDC"/>
+    <tableColumn id="12" xr3:uid="{240862A6-FD23-44C3-9E5C-A859BA5B9242}" name="SMB Port Open"/>
+    <tableColumn id="13" xr3:uid="{A1165CA6-607C-4301-9340-8FF14B6B71F2}" name="SMB1(NT LM 0.12)"/>
+    <tableColumn id="14" xr3:uid="{8188D852-1BED-41A1-A7DA-D3C2F2FEC5BC}" name="SMB2(0x0202)"/>
+    <tableColumn id="15" xr3:uid="{F50EEDA8-0B9D-4A90-B08B-37FE544EF17E}" name="SMB2(0x0210)"/>
+    <tableColumn id="16" xr3:uid="{2CD4ABD5-FF95-48CD-AA92-1414645787C9}" name="SMB3(0x0300)"/>
+    <tableColumn id="17" xr3:uid="{316E91EC-954E-4589-A6BF-A59B400953F1}" name="SMB3(0x0302)"/>
+    <tableColumn id="18" xr3:uid="{2AE6C34C-CFE9-4E26-B7FD-EC67965D974F}" name="SMB3(0x0311)"/>
+    <tableColumn id="19" xr3:uid="{F1ACFC07-E547-4410-AE9B-143CC99CDCF4}" name="SMB Signing"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{46F24AA0-AC87-4CAD-87E3-626AA69200A8}" name="Table8" displayName="Table8" ref="A1:B10" totalsRowShown="0">
-  <autoFilter ref="A1:B10" xr:uid="{2D5AAD68-88BD-46F6-8C01-1CC9CB3CC8CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A83FB8F8-7E0B-4E4A-8C67-626350D9CB86}" name="Table8" displayName="Table8" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{02CBA214-AD3D-481A-9982-4ED3C7FD3773}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E3CF530-CEE8-4756-A38E-67566DBDF072}" name="Policy"/>
-    <tableColumn id="2" xr3:uid="{5CE5E80E-B94B-40D5-A556-A4E52DB7B4DB}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{2497CAA1-833F-4CC2-91C0-FCCF374029EB}" name="Policy"/>
+    <tableColumn id="2" xr3:uid="{0EF24BAF-710B-4185-A17F-55CB5772590B}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F36BB18-F136-4799-AB3C-91838CD0C80E}" name="Table7" displayName="Table7" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13" xr:uid="{7AC72171-E808-45B5-A39B-A6E1D1F145D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{88AD7EBE-D173-4581-A001-0173575DF1AD}" name="Table7" displayName="Table7" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{AEE66264-D238-4020-A14E-97BEEDFEB983}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{937295F7-A8F4-4B9E-A8BD-0BA4900877D4}" name="Policy"/>
-    <tableColumn id="2" xr3:uid="{A69612B9-3D11-41A4-94D3-35DA61D39A94}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{E843AC2E-4CFC-4C33-80C2-1DF268607A89}" name="Policy"/>
+    <tableColumn id="2" xr3:uid="{8828D512-98D1-45FF-8386-C8AD1D58584D}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EA166797-32FF-451B-8BC4-A114C27893CF}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{C9AAFDFD-12A3-4D78-B8A6-E681573F09DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8B80378C-663B-4822-83DC-72D1168E6408}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{DE63F86F-5930-4D0D-A367-4C54FCB40FAE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{431EC74D-24E4-40A2-B59B-337E6EA7DCE9}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{93699451-BB72-48A9-8768-3FE7D42C56F4}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{E393EE2C-86A6-438F-80C6-5FE81864B1E6}" name="whenCreated" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{0FF90324-42E7-4EC9-AD1A-F15CB4766B40}" name="whenChanged" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{CB07DD2C-0662-4B14-BCBC-B39090ACE283}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{7073EF6E-3EA4-4C9C-B66A-57AC58A99541}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{98B00932-1BA4-493C-BB58-F10993A09D7E}" name="whenCreated" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{4C4EFB33-23D8-451C-98E2-F4A34163283B}" name="whenChanged" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2CF796F8-423E-419C-8192-2D3895DFF501}" name="Table5" displayName="Table5" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{7F55ABED-FE10-4904-9ABA-1AD119F9770F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{857D6870-8F6E-4499-A847-4BD5F8B9D89F}" name="Table5" displayName="Table5" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{4D709CA4-891D-4F3D-B257-B8EB91D597C4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FA0E8C93-9806-4129-AD41-7D6E58A4FF71}" name="Site"/>
-    <tableColumn id="2" xr3:uid="{47878529-3EDA-4D5E-9F15-760F98B0CE2B}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{61FEC0B4-F206-4C7C-A848-CC5A651A2AEA}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{9C649659-9410-4EED-A1E5-DB432EDBABF8}" name="whenCreated" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{D8C747E1-9CAA-4C1C-94E1-4BF0F3345295}" name="whenChanged" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{49895BFD-E6E6-42D9-8164-BA7DAE45E015}" name="Site"/>
+    <tableColumn id="2" xr3:uid="{38D22164-C663-4661-9C76-39ACC5A41A2A}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{54A98972-43C7-4ED7-9CE4-A621794A1FA1}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{5807A47D-AB1C-43EC-997F-9F579E01C9C6}" name="whenCreated" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{1288FEC7-5BF7-43A2-B73E-9B26D3562036}" name="whenChanged" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A9DC586D-7588-4E1E-BA76-76AEC6310579}" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{83FA8E37-3E97-4B24-AAFB-82947346B934}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{801BBBD1-4AC1-4A5A-8FC9-1F93E3FB9237}" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{8DCEC8D4-2DD2-4725-B650-E642875D5298}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FC1CB6A9-B13A-413E-A180-9380303B3E9C}" name="Source Domain"/>
-    <tableColumn id="2" xr3:uid="{56B47572-6C4D-4EC9-B879-38259370CD4F}" name="Target Domain"/>
-    <tableColumn id="3" xr3:uid="{C0FE9BA8-FBB3-46EF-B2B7-21E8D36A1317}" name="Trust Direction"/>
-    <tableColumn id="4" xr3:uid="{189E4067-1162-46FE-8231-08BBDFD1AA13}" name="Trust Type"/>
-    <tableColumn id="5" xr3:uid="{FAF52A9C-424D-4523-8671-C240A8AA4785}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{F468CB4C-F9AC-4710-9C58-6EC6DB3241E2}" name="whenCreated" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{1AE1CF07-5092-4CA8-AA7F-4A1683EF8953}" name="whenChanged" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{836E0399-26FE-47C3-B6EF-494D553E7991}" name="Source Domain"/>
+    <tableColumn id="2" xr3:uid="{12F24D7D-096D-445C-99D2-1E684B29005D}" name="Target Domain"/>
+    <tableColumn id="3" xr3:uid="{F1B0DC3C-7C0D-4DF3-9496-CB0199189764}" name="Trust Direction"/>
+    <tableColumn id="4" xr3:uid="{6CF05288-6928-44A5-B1C1-80DBC1D66ACF}" name="Trust Type"/>
+    <tableColumn id="5" xr3:uid="{B6178BB0-A746-4A94-89ED-57C57F31114D}" name="Attributes"/>
+    <tableColumn id="6" xr3:uid="{DB589F82-6A50-49FF-BDF6-4079A888E3A5}" name="whenCreated" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{C8D0B7BC-2E55-45F1-B86A-F48D5E3188D6}" name="whenChanged" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{512743F0-1E88-4264-AAC1-BC279EAA75F0}" name="Table21" displayName="Table21" ref="A1:D39" totalsRowShown="0">
-  <autoFilter ref="A1:D39" xr:uid="{BB4D17E2-3D05-437D-8307-9D068DB4210C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5E652A49-315C-4378-AB9B-824F9D652964}" name="Table21" displayName="Table21" ref="A1:D39" totalsRowShown="0">
+  <autoFilter ref="A1:D39" xr:uid="{86A80FC8-41CE-447D-83E1-3C157CA637E4}"/>
   <sortState ref="A2:D39">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7ED4939B-106D-4739-BCB2-86571D972443}" name="Group Name"/>
-    <tableColumn id="2" xr3:uid="{BC402902-3E95-4A38-A1DF-61611828BB03}" name="Member UserName"/>
-    <tableColumn id="3" xr3:uid="{BE9859C4-EDF5-4E4A-AE3C-F744BD17B070}" name="Member Name"/>
-    <tableColumn id="4" xr3:uid="{179E29DE-3FF6-4E11-9C7D-265AE70ECA5E}" name="AccountType"/>
+    <tableColumn id="1" xr3:uid="{50BD7F94-A5D9-4C6D-8089-38D29E3D873A}" name="Group Name"/>
+    <tableColumn id="2" xr3:uid="{B207D36B-7579-4D3D-87DB-7D0D2CBBDBC8}" name="Member UserName"/>
+    <tableColumn id="3" xr3:uid="{7F5F2D1F-4C69-4DD3-B09F-790B53954960}" name="Member Name"/>
+    <tableColumn id="4" xr3:uid="{F1E46996-03F2-4A2D-9B80-16A576BE9D4F}" name="AccountType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D419DAF-ADE8-45FD-BDB5-DD277A4E15C2}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{4AF13B12-B9E8-49FA-A81D-DB538B73D933}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A844614A-FAD1-46BB-866F-5A3BF0AAE710}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{88CF2ED6-A8CF-4B70-A291-F7C40C4C1A20}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FD94BF6-F2ED-4463-9D87-AB9332B3F1A0}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{48B8AB1B-67A2-4094-A4AA-902464BEC716}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{20A824E8-B518-4419-A1D8-1125E9E99664}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{7457C18B-3334-4B92-A436-F01632F4E510}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E498683E-EC81-42DD-904B-5BDBC0D93E79}" name="Table2" displayName="Table2" ref="A1:B17" totalsRowShown="0">
-  <autoFilter ref="A1:B17" xr:uid="{C790196A-7D1B-4752-9DC8-15E3D18EBAD9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{092E06AE-5B0E-418E-8260-81C2EC5EC76E}" name="Table2" displayName="Table2" ref="A1:B17" totalsRowShown="0">
+  <autoFilter ref="A1:B17" xr:uid="{AAA309B8-EA5D-4BB7-AA06-0559DFD0F0C8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1B5D6E72-2D82-4F89-8781-747DFE039809}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{45488184-8CC9-4AD7-8308-37301C29715F}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{464652A2-791C-45F6-856B-4738D18A9821}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{F7DB7AD9-95C8-43F2-B4A2-C0D93981CE64}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77E9EB72-785A-464F-BA02-24F7BCE1DC0C}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{3E4896F1-63A9-4B20-BAC7-F0C8CE108704}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46728F37-5B68-434F-9AAD-80E8312FC5A6}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{AF92BCF7-78E6-45B9-A0D7-49FD1D0F54DB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3FF6DC25-85EC-4676-9D8E-ABAD336A4D63}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{DF2DF4A0-BE7B-4DBD-AF2A-E5FC865A92AD}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{94DDE45E-7F8B-486F-9366-FE390BB012D5}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{77A7782D-6D46-4C7F-82E8-B9C5E3481FB8}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{CAA30E50-5629-4AD7-90C9-D30B2665511A}" name="Table20" displayName="Table20" ref="A1:L57" totalsRowShown="0">
-  <autoFilter ref="A1:L57" xr:uid="{F69A6C57-254D-44D1-BF25-262E4ED812DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{52C1D9A7-14B0-4513-8D73-F933C58D4D02}" name="Table20" displayName="Table20" ref="A1:L57" totalsRowShown="0">
+  <autoFilter ref="A1:L57" xr:uid="{1D189B3C-0EC0-4CCE-B35B-119AA53E714F}"/>
   <sortState ref="A2:L57">
     <sortCondition ref="K1"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{55D5FC42-D67E-4B99-88DB-41B785D9392F}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{28906E96-22BB-4CE4-B154-1E2DCD957BE7}" name="AdminCount"/>
-    <tableColumn id="3" xr3:uid="{6C45F70D-0C2A-45FA-9EE9-3FE6FAB1BE74}" name="GroupCategory"/>
-    <tableColumn id="4" xr3:uid="{64910578-C088-4D75-9EBF-00262BC670B8}" name="GroupScope"/>
-    <tableColumn id="5" xr3:uid="{375A8A03-A361-418B-822E-D1191BA51177}" name="ManagedBy"/>
-    <tableColumn id="6" xr3:uid="{C84D0AAE-887D-496D-AFA5-B446F12935FC}" name="SID"/>
-    <tableColumn id="7" xr3:uid="{79EE6F9E-4948-4486-BE9D-7B769120D118}" name="SIDHistory"/>
-    <tableColumn id="8" xr3:uid="{36072B96-ECE8-4513-BB1B-D326F8BF3EED}" name="Description"/>
-    <tableColumn id="9" xr3:uid="{86F2EC60-5350-495C-B824-663C6BB1EC04}" name="whenCreated" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{53E92F08-9EEF-4C54-8CBD-0174AC5B23A0}" name="whenChanged" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{EEA80372-138F-4E96-8E1D-FAF3B9707909}" name="DistinguishedName"/>
-    <tableColumn id="12" xr3:uid="{E3930BE5-E020-4DDD-B5CE-A45E2772AF5F}" name="CanonicalName"/>
+    <tableColumn id="1" xr3:uid="{1F455A8D-B91B-466E-AEF9-5881BE280223}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{7A7682AE-6FEF-411F-BE5D-A613F94CFDFC}" name="AdminCount"/>
+    <tableColumn id="3" xr3:uid="{A6630A33-2CDD-468A-A013-80B71F594A49}" name="GroupCategory"/>
+    <tableColumn id="4" xr3:uid="{05A96751-E3C5-45F6-816E-C7EAC26ACBF2}" name="GroupScope"/>
+    <tableColumn id="5" xr3:uid="{49EFC3BA-602C-4138-9B32-ADEBFBDDE9A8}" name="ManagedBy"/>
+    <tableColumn id="6" xr3:uid="{CE98A606-5694-4AA9-8C4F-EED1E53A07D9}" name="SID"/>
+    <tableColumn id="7" xr3:uid="{8A84E1A1-D584-4E85-BFCB-911CE0BBFD17}" name="SIDHistory"/>
+    <tableColumn id="8" xr3:uid="{9CAEE149-E4BF-4286-A784-886C091CBA88}" name="Description"/>
+    <tableColumn id="9" xr3:uid="{1C14A82A-403C-4FF2-A44D-E6DB14B17AF0}" name="whenCreated" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{1586AAE2-EA65-4A0F-8BE0-11010FC9D990}" name="whenChanged" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{EDF85797-FDE6-46BA-A061-85F2908E7E0F}" name="DistinguishedName"/>
+    <tableColumn id="12" xr3:uid="{B75C3E7D-1C12-4FCC-9BA5-C56D591B2F69}" name="CanonicalName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{418F9B56-70A1-4A99-8336-9F66B7AFDFEE}" name="Table19" displayName="Table19" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{C8C6B0A5-8BD4-4138-A3F2-F27E0195B3A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{CC0D9968-A261-423B-8262-73293B176B7A}" name="Table19" displayName="Table19" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{635E0990-F39A-4C11-ABCA-7CDA73AA1A64}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C9A4BFBD-C06F-4F30-8D5D-B3021687B983}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A181E162-08C5-4435-8328-584D83B02B73}" name="Username"/>
-    <tableColumn id="3" xr3:uid="{4AD5F8F6-B74D-49A3-AF3C-5AB85D3444C1}" name="Enabled"/>
-    <tableColumn id="4" xr3:uid="{87F62526-6220-48CB-9D4B-FDBA149BCB54}" name="Service"/>
-    <tableColumn id="5" xr3:uid="{9DE73162-6D99-42B7-8EF0-4740B9535482}" name="Host"/>
-    <tableColumn id="6" xr3:uid="{681256E3-35D0-4956-9F53-0184770F251E}" name="Password Last Set" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{3985FDC3-4B8C-426D-992C-F1E7E08673E9}" name="Description"/>
-    <tableColumn id="8" xr3:uid="{37D7F1EC-A7BA-4882-8323-B9E6981D2F60}" name="Memberof"/>
+    <tableColumn id="1" xr3:uid="{C0A0F79B-049D-41D3-8D8A-5C6CF1E7D3F2}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{8CC8DFB7-C1B3-48A3-A566-1C80026E3FBF}" name="Username"/>
+    <tableColumn id="3" xr3:uid="{34F4C9FD-C2D2-4C9D-8814-12BC8F54178A}" name="Enabled"/>
+    <tableColumn id="4" xr3:uid="{06FD74F4-EBF3-4D72-90CF-84C82F911461}" name="Service"/>
+    <tableColumn id="5" xr3:uid="{801F5A9E-AF8A-481F-9264-1474404B3F5C}" name="Host"/>
+    <tableColumn id="6" xr3:uid="{6510D651-DAFD-467A-9FD6-13DFAB8BCFC2}" name="Password Last Set" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{BE164070-FAA0-42C8-B3C1-E5D4F100266F}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{394ED7CD-85A6-4E79-97C9-988A04C65EC9}" name="Memberof"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FF144E6C-FDFD-4532-B844-AF19E870B75E}" name="Table18" displayName="Table18" ref="A1:H5" totalsRowShown="0">
-  <autoFilter ref="A1:H5" xr:uid="{3B06F1DE-0106-4A3A-83E2-D1C0C2F49A04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8D3E641A-0386-4E8B-BF0B-11AEBF89C5AA}" name="Table18" displayName="Table18" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{1C687FC5-9069-40A0-9D1C-9A125A0B7763}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{659886FC-339E-4CC8-9A85-04D4AECF8E87}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3D0331A3-A47E-4950-AAD8-1C57398C846F}" name="Depth"/>
-    <tableColumn id="3" xr3:uid="{716120CB-AE3F-4C18-B862-BA2CCF289DB6}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{FF2827C9-26BF-42A8-AE32-39B3F7632219}" name="whenCreated" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{6390D0B3-5787-4A09-B7AB-EE9CA3825E26}" name="whenChanged" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{59AE691B-7051-415D-95B7-51F6FA61A194}" name="DistinguishedName"/>
-    <tableColumn id="7" xr3:uid="{435D7481-F7DF-4099-9790-C88D9C46A345}" name="gPLink"/>
-    <tableColumn id="8" xr3:uid="{37DFE842-AF23-44C1-B2A6-9BCD3B6431C5}" name="gPOptions"/>
+    <tableColumn id="1" xr3:uid="{E418D490-2C18-4664-9711-7E6A4F839880}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{A5312E08-971B-4A72-ACCE-9E2829FF1D4B}" name="Depth"/>
+    <tableColumn id="3" xr3:uid="{31596C7E-AF31-46E9-A0D4-0A01A958CADA}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{73BCE8F2-5AEE-4A4B-8108-8F4EFED6B6B3}" name="whenCreated" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{AC02CFBE-C1AE-4628-A6BC-EECFCD08513E}" name="whenChanged" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{AB1714BD-8E3B-4342-9BC1-5D8EA2919B4A}" name="DistinguishedName"/>
+    <tableColumn id="7" xr3:uid="{950DC624-0822-4191-B59B-C7D8796EE3BD}" name="gPLink"/>
+    <tableColumn id="8" xr3:uid="{11C3A61F-55E5-4EB6-B907-C099A4DC80CB}" name="gPOptions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{11C32D81-398B-4270-9500-5662A2971B5D}" name="Table17" displayName="Table17" ref="A1:T454" totalsRowShown="0">
-  <autoFilter ref="A1:T454" xr:uid="{30310089-B90E-4A4A-8D88-BB8DE1D03BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A7F9CF67-4119-49F9-9305-867F7B129C84}" name="Table17" displayName="Table17" ref="A1:T454" totalsRowShown="0">
+  <autoFilter ref="A1:T454" xr:uid="{9E3D58E6-6F5F-4253-90FB-E20F2FCD8CF7}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A6663789-1102-4EA9-A7D1-C33ACE7515EB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{D8EE6B60-3BA0-4CC0-9D18-DC0C96BF97AD}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{8308ADD5-1699-4683-ACE4-4D58B329809D}" name="objectTypeName"/>
-    <tableColumn id="4" xr3:uid="{110CCFFE-3380-485D-ABB9-C69BFD4B609E}" name="inheritedObjectTypeName"/>
-    <tableColumn id="5" xr3:uid="{3AD5C686-9689-445E-BB98-D94512535426}" name="ActiveDirectoryRight"/>
-    <tableColumn id="6" xr3:uid="{66C70C81-EE59-430A-8F69-05C747E58907}" name="AccessControl"/>
-    <tableColumn id="7" xr3:uid="{B5E36AE1-8EBF-4566-83A1-069538095AA0}" name="IdentityReferenceName"/>
-    <tableColumn id="8" xr3:uid="{7C6387EF-287A-4B12-8363-A80805EAAD97}" name="OwnerName"/>
-    <tableColumn id="9" xr3:uid="{A65A9D8D-02CB-4D8F-99BE-6D7B97C6F0BB}" name="DistinguishedName"/>
-    <tableColumn id="10" xr3:uid="{73CD4506-5A69-4D61-87AD-2331E8D5C5F8}" name="Owner"/>
-    <tableColumn id="11" xr3:uid="{BA5565F7-219C-41E6-8D60-A9F43B95B80D}" name="ActiveDirectoryRights"/>
-    <tableColumn id="12" xr3:uid="{1B042CE7-6DBF-4EE7-ADB9-33DF093E77DD}" name="InheritanceType"/>
-    <tableColumn id="13" xr3:uid="{D5429273-3849-438E-AC1B-5D0B9E035832}" name="ObjectType"/>
-    <tableColumn id="14" xr3:uid="{5C31C49A-5787-4A89-827B-84034BF43CEA}" name="InheritedObjectType"/>
-    <tableColumn id="15" xr3:uid="{9C96EF48-1DBB-4F6B-9095-78DCF06AF81F}" name="ObjectFlags"/>
-    <tableColumn id="16" xr3:uid="{9928CA80-975C-4FD6-938D-294BA86DED63}" name="AccessControlType"/>
-    <tableColumn id="17" xr3:uid="{6D760AF3-F486-444B-AD5E-C4B6D2317259}" name="IdentityReference"/>
-    <tableColumn id="18" xr3:uid="{F60A2AA7-35F9-4E92-B7EB-C41E1D3C4B2C}" name="IsInherited"/>
-    <tableColumn id="19" xr3:uid="{97D68521-EE99-483E-98DC-F6211A9B8B79}" name="InheritanceFlags"/>
-    <tableColumn id="20" xr3:uid="{23AE5839-1F65-4BF5-BC7A-4FF8C474CE27}" name="PropagationFlags"/>
+    <tableColumn id="1" xr3:uid="{B0506918-FE78-4C2A-8DED-F47C27EA7A0E}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{244F609A-2B1B-4E85-AC3B-4DDF33ABE081}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{083F17DF-6AA7-4619-9ED8-6AF070B12A7E}" name="objectTypeName"/>
+    <tableColumn id="4" xr3:uid="{5411E417-2F33-4ED9-934C-A2977F2D1FF3}" name="inheritedObjectTypeName"/>
+    <tableColumn id="5" xr3:uid="{615F2B5C-FC30-4CE2-AE51-54A5FB0DB388}" name="ActiveDirectoryRight"/>
+    <tableColumn id="6" xr3:uid="{0F7A150C-B098-4C2F-80C6-A48E69C97632}" name="AccessControl"/>
+    <tableColumn id="7" xr3:uid="{440BEC2C-C7D9-4741-8A4E-5046BD544A86}" name="IdentityReferenceName"/>
+    <tableColumn id="8" xr3:uid="{AD9EFA68-6774-4506-A392-21519349C376}" name="OwnerName"/>
+    <tableColumn id="9" xr3:uid="{C009649A-A797-4FF3-A62E-F083F2758DCB}" name="DistinguishedName"/>
+    <tableColumn id="10" xr3:uid="{6002AA6E-DA50-4F80-993D-372614F8ED51}" name="Owner"/>
+    <tableColumn id="11" xr3:uid="{A0F31839-45E1-4E3A-9DCF-613968E2DF73}" name="ActiveDirectoryRights"/>
+    <tableColumn id="12" xr3:uid="{77F3F5B8-7457-40C4-8ADE-B89954CA8BEE}" name="InheritanceType"/>
+    <tableColumn id="13" xr3:uid="{E054B771-2B8E-49CA-B53C-8C8E8ECA995F}" name="ObjectType"/>
+    <tableColumn id="14" xr3:uid="{265FC751-8A05-4E02-99C2-8025374C0737}" name="InheritedObjectType"/>
+    <tableColumn id="15" xr3:uid="{25451E8A-51D3-4327-BFB6-1344015D390C}" name="ObjectFlags"/>
+    <tableColumn id="16" xr3:uid="{AFEEFC95-B61F-41C1-871F-BEE753B41187}" name="AccessControlType"/>
+    <tableColumn id="17" xr3:uid="{D8BF52FF-5C4A-4F56-B031-E7DBB84831A7}" name="IdentityReference"/>
+    <tableColumn id="18" xr3:uid="{08D406EC-2178-4334-A23C-2FE78F4BBC35}" name="IsInherited"/>
+    <tableColumn id="19" xr3:uid="{4C1A54F6-30B4-49ED-8F0D-F57C90C942D3}" name="InheritanceFlags"/>
+    <tableColumn id="20" xr3:uid="{269310C9-1632-425A-ABDC-8BAC34F07214}" name="PropagationFlags"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{BA17EE68-55CD-4E50-A8ED-1ADFEF748266}" name="Table16" displayName="Table16" ref="A1:V8" totalsRowShown="0">
-  <autoFilter ref="A1:V8" xr:uid="{1ACED059-003F-4004-A11F-102368E2FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A82AF9CB-782B-44EF-9DF6-5E8948274ADA}" name="Table16" displayName="Table16" ref="A1:V8" totalsRowShown="0">
+  <autoFilter ref="A1:V8" xr:uid="{9282B4EF-8ABC-42FF-8F55-A05764067CB5}"/>
   <sortState ref="A2:V8">
     <sortCondition ref="M1"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{20CA6DC9-EECB-4669-8194-64ED7AFA778A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A3CFA7AB-281E-43D2-BC9E-38B4781B2CDC}" name="DNSHostName"/>
-    <tableColumn id="3" xr3:uid="{88292CC4-5D9E-438F-A7E0-E4E4D1D2A8CF}" name="Enabled"/>
-    <tableColumn id="4" xr3:uid="{6A04D12F-8656-4A74-81FB-1854947C6234}" name="IPv4Address"/>
-    <tableColumn id="5" xr3:uid="{3159710B-A6D0-4DDE-96B0-59E61CB28FAB}" name="Operating System"/>
-    <tableColumn id="6" xr3:uid="{9CEABE32-9FF1-4BF2-82F8-BD863D21612F}" name="Logon Age (days)"/>
-    <tableColumn id="7" xr3:uid="{BA2BC628-5D55-4DB4-804E-AD2635A95CCE}" name="Password Age (days)"/>
-    <tableColumn id="8" xr3:uid="{17576739-925F-4223-9361-E6506A64013E}" name="Dormant (&gt; 90 days)"/>
-    <tableColumn id="9" xr3:uid="{237A58A9-2B12-4CC2-B925-970EC03BC575}" name="Password Age (&gt; 30 days)"/>
-    <tableColumn id="10" xr3:uid="{4D3FF87E-CF86-404D-AE49-AEFDD9D08BCC}" name="Delegation Type"/>
-    <tableColumn id="11" xr3:uid="{1CCBC695-944E-48A9-B0E9-3BAD4B2DE816}" name="Delegation Protocol"/>
-    <tableColumn id="12" xr3:uid="{5B992B13-2FCA-4750-892D-0681EAE44DAA}" name="Delegation Services"/>
-    <tableColumn id="13" xr3:uid="{36250762-0690-493C-BA57-4F7D3FDB948D}" name="UserName"/>
-    <tableColumn id="14" xr3:uid="{67996566-0DF2-4B55-A908-28E2E5E55939}" name="Primary Group ID"/>
-    <tableColumn id="15" xr3:uid="{CA4B9413-F98A-47BD-88D3-1F659C20A3F3}" name="SID"/>
-    <tableColumn id="16" xr3:uid="{AC94E6C5-FBA1-4ACF-9668-3774321E6160}" name="SIDHistory"/>
-    <tableColumn id="17" xr3:uid="{82553A73-6813-4779-9B7E-60FBEC4C4237}" name="Description"/>
-    <tableColumn id="18" xr3:uid="{617BC20F-B3D0-486A-9F9A-921277D792A6}" name="Last Logon Date" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{B710F66D-E802-4B98-ABCF-8069B0303F07}" name="Password LastSet" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{C23C7D08-1AE8-4F1C-AC6F-016A58C6D092}" name="whenCreated" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{C86CE725-E1C2-4357-A6E6-FEA341FCE98B}" name="whenChanged" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{7B8455C8-A4BB-4CFB-9ACB-5E3A106F7F01}" name="Distinguished Name"/>
+    <tableColumn id="1" xr3:uid="{2E51700C-1B2D-4759-B59B-42CE5A9D9D67}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{B0ED54EC-1E17-4503-936D-01D405E9771C}" name="DNSHostName"/>
+    <tableColumn id="3" xr3:uid="{AE4D0764-ED1D-4260-B2C3-101A4946DBD4}" name="Enabled"/>
+    <tableColumn id="4" xr3:uid="{8163B024-40B0-461B-A5C3-18A1F75BE5E9}" name="IPv4Address"/>
+    <tableColumn id="5" xr3:uid="{2D48E649-17FA-4E2C-A0C5-CF12B340A0D0}" name="Operating System"/>
+    <tableColumn id="6" xr3:uid="{BA79CF5C-5F67-4BDD-80BC-DD1687088FB0}" name="Logon Age (days)"/>
+    <tableColumn id="7" xr3:uid="{E3077C50-C799-4806-A6A7-3F9EA5294723}" name="Password Age (days)"/>
+    <tableColumn id="8" xr3:uid="{8316D3CB-B9C4-4622-813E-176E175C0504}" name="Dormant (&gt; 90 days)"/>
+    <tableColumn id="9" xr3:uid="{587F2F7A-DE88-45B6-A1CC-3B98A30C92F4}" name="Password Age (&gt; 30 days)"/>
+    <tableColumn id="10" xr3:uid="{C36866D1-5CEE-4377-84CF-94DE14FF0896}" name="Delegation Type"/>
+    <tableColumn id="11" xr3:uid="{9F160386-278B-4EC7-9139-430807526E57}" name="Delegation Protocol"/>
+    <tableColumn id="12" xr3:uid="{040B09AF-8687-44C7-A9E1-50286AA5FACC}" name="Delegation Services"/>
+    <tableColumn id="13" xr3:uid="{1DA053F7-5CED-44B7-837E-A132D778CABB}" name="UserName"/>
+    <tableColumn id="14" xr3:uid="{D4E21C8F-AE2A-4EE2-A386-01D68776CFB2}" name="Primary Group ID"/>
+    <tableColumn id="15" xr3:uid="{FC3D6E82-0A53-4B2C-9020-B2C5553F94DC}" name="SID"/>
+    <tableColumn id="16" xr3:uid="{C206A452-CACA-4D85-AFA6-0309842C63F6}" name="SIDHistory"/>
+    <tableColumn id="17" xr3:uid="{6033F0DB-C074-46F6-9AD3-B0DE6AA97FD9}" name="Description"/>
+    <tableColumn id="18" xr3:uid="{2DBE1BD6-03F6-4C39-BD62-B7D4FD6297D8}" name="Last Logon Date" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{97CE3762-F34F-4DC4-BE3E-76224B38B413}" name="Password LastSet" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{4E3CA6F5-27FA-4ED8-8DFD-401F97008AD9}" name="whenCreated" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{E778A68C-2AAB-45BC-9D5C-1947F3046761}" name="whenChanged" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{F57B6B5C-90A4-45EC-A9E9-01DD046B36E1}" name="Distinguished Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E71AA492-B8B5-4435-873C-19404B3EE4EE}" name="Table15" displayName="Table15" ref="A1:C23" totalsRowShown="0">
-  <autoFilter ref="A1:C23" xr:uid="{671994F0-015F-4954-BCB1-D57CC3AAAF87}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F8073FC4-7165-4D08-B2CD-7323F04239D8}" name="Table15" displayName="Table15" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23" xr:uid="{F3BB73B7-C591-442C-87A8-BA92D35B3B69}"/>
   <sortState ref="A2:C23">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{32CDACCC-CCF0-42D6-A772-DC1A35EFD289}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7AE2FF3D-FC8E-4D57-97C9-7887F4CD75DD}" name="Service"/>
-    <tableColumn id="3" xr3:uid="{091EB9DD-F814-44F8-BFCB-D937F2B20292}" name="Host"/>
+    <tableColumn id="1" xr3:uid="{F4A1B992-C889-44EB-8A30-C8E8694E5252}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{EEB33418-9274-4D55-A56D-DC2CDF910F70}" name="Service"/>
+    <tableColumn id="3" xr3:uid="{20C41F3B-AEE4-4B48-A215-5C6C446F4C81}" name="Host"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{ED9FB093-29A3-4432-9A79-BDBE585D2DC0}" name="Table14" displayName="Table14" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{8EC1533E-2050-4A26-A0E2-1540A361ABB1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{011EE8E9-BCE3-4CB2-A1B8-3D963744A636}" name="Table14" displayName="Table14" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{0D861BEC-30CD-4666-A508-4BF1E1402CB4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{834D6F15-EBAD-4C08-9AC7-73235895CB59}" name="Hostname"/>
-    <tableColumn id="2" xr3:uid="{E0A0178E-787B-45A5-9583-D16A9430E449}" name="Stored"/>
-    <tableColumn id="3" xr3:uid="{2A94A674-F0E6-48CA-B482-D7133B716B6A}" name="Readable"/>
-    <tableColumn id="4" xr3:uid="{F48D1032-4734-4D8D-AB06-7486E0BFB4E2}" name="Password"/>
-    <tableColumn id="5" xr3:uid="{0D872473-55CF-4746-A635-1E99CCC96F21}" name="Expiration" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{8DA52CB6-F64C-4DA5-B0FB-1ACD463846A8}" name="Hostname"/>
+    <tableColumn id="2" xr3:uid="{209C1F7C-0906-46E2-A968-D58709984C9C}" name="Stored"/>
+    <tableColumn id="3" xr3:uid="{BDEDCF2D-42DF-412A-BDCC-5C14C33041B4}" name="Readable"/>
+    <tableColumn id="4" xr3:uid="{E63651A1-35E4-4823-865F-D8C99C590C9E}" name="Password"/>
+    <tableColumn id="5" xr3:uid="{3BEFE7A8-E4D5-49F4-A97C-81FC5CA60C34}" name="Expiration" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7310,7 +8950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF24E7E3-F98A-4BC6-84AA-CA93A24E8D08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF72298B-615F-4425-972E-0D933D402791}">
   <dimension ref="A5:B34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -7471,34 +9111,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" location="'User Stats'!A1" display="User Stats" xr:uid="{23574A24-CCA3-41C6-AF92-3F704890C0D2}"/>
-    <hyperlink ref="A7" location="'Computer Stats'!A1" display="Computer Stats" xr:uid="{B0916FB3-2F3C-427D-AADF-28B6237CD7E9}"/>
-    <hyperlink ref="A8" location="'Privileged Group Stats'!A1" display="Privileged Group Stats" xr:uid="{E67F1AA5-0299-430C-AD16-0B3C579CBF37}"/>
-    <hyperlink ref="A9" location="'Computer Role Stats'!A1" display="Computer Role Stats" xr:uid="{0B479F2C-DBE2-4FE1-B8DB-595AD8F68415}"/>
-    <hyperlink ref="A10" location="'Operating System Stats'!A1" display="Operating System Stats" xr:uid="{1FB807C1-8570-45A8-8C33-E7C3C5234826}"/>
-    <hyperlink ref="A11" location="'Users'!A1" display="Users" xr:uid="{9C7FB77F-B112-4EEE-89BA-4905BA2CBDA7}"/>
-    <hyperlink ref="A12" location="'Group Members'!A1" display="Group Members" xr:uid="{9BC95CA1-568C-4B5D-A504-C5BAA421B9E7}"/>
-    <hyperlink ref="A13" location="'Groups'!A1" display="Groups" xr:uid="{76A10D1E-1CF7-4878-A4AB-70F9872100E3}"/>
-    <hyperlink ref="A14" location="'User SPNs'!A1" display="User SPNs" xr:uid="{2AB0B17D-90A6-4021-B57F-990576C2AB62}"/>
-    <hyperlink ref="A15" location="'OUs'!A1" display="OUs" xr:uid="{055C3D09-5557-4736-9710-1993E7F6A1AD}"/>
-    <hyperlink ref="A16" location="'ACLs'!A1" display="ACLs" xr:uid="{1302C3E2-5262-418C-B618-62B2FF3A55DE}"/>
-    <hyperlink ref="A17" location="'Computers'!A1" display="Computers" xr:uid="{B80208D6-39E3-4E9C-8A9B-67ADD8998066}"/>
-    <hyperlink ref="A18" location="'Computer SPNs'!A1" display="Computer SPNs" xr:uid="{06D2A6F3-A153-4DA6-87C7-D07B82FA0222}"/>
-    <hyperlink ref="A19" location="'LAPS'!A1" display="LAPS" xr:uid="{95EC8772-220E-4504-8B0F-B86D7189157A}"/>
-    <hyperlink ref="A20" location="'BitLocker'!A1" display="BitLocker" xr:uid="{C04811C9-19EB-4E7D-8130-4A871A820C07}"/>
-    <hyperlink ref="A21" location="'DNS Zones'!A1" display="DNS Zones" xr:uid="{794F7096-DB44-4623-BD4A-020748781A4B}"/>
-    <hyperlink ref="A22" location="'DNS Records'!A1" display="DNS Records" xr:uid="{E5C1E31A-991E-4604-ACEE-D66973E3E0EF}"/>
-    <hyperlink ref="A23" location="'Domain GPOs'!A1" display="Domain GPOs" xr:uid="{7C8CDD25-51CA-41A9-8D5A-189DE37F6B83}"/>
-    <hyperlink ref="A24" location="'Domain Controllers'!A1" display="Domain Controllers" xr:uid="{4D55C10E-4E3F-4E1A-97A9-89B2CD5CB307}"/>
-    <hyperlink ref="A25" location="'Default Password Policy'!A1" display="Default Password Policy" xr:uid="{991C72F6-F3D2-4940-8F82-E72723398266}"/>
-    <hyperlink ref="A26" location="'Fine Grained Password Policy'!A1" display="Fine Grained Password Policy" xr:uid="{96F5F17D-33A1-4423-900A-3E527B33551B}"/>
-    <hyperlink ref="A27" location="'Sites'!A1" display="Sites" xr:uid="{82A26B7A-B592-4F7B-B53B-E523F3D78D77}"/>
-    <hyperlink ref="A28" location="'Subnets'!A1" display="Subnets" xr:uid="{605F0A35-0441-4902-8C54-71E4B2FFCB54}"/>
-    <hyperlink ref="A29" location="'Trusts'!A1" display="Trusts" xr:uid="{29E70FB9-7A9B-4349-AE4D-A0E2E811A9D4}"/>
-    <hyperlink ref="A30" location="'Domain'!A1" display="Domain" xr:uid="{C61EEA80-757B-40F0-90B3-68FD49B7B88B}"/>
-    <hyperlink ref="A31" location="'Forest'!A1" display="Forest" xr:uid="{B154FC5B-BDFF-4DD5-9F18-0D2536FC5AE3}"/>
-    <hyperlink ref="A32" location="'About ADRecon'!A1" display="About ADRecon" xr:uid="{F5D7BB37-86E8-4142-81B5-95921AA4A256}"/>
-    <hyperlink ref="B34" r:id="rId1" xr:uid="{4F834F43-0CDE-4A34-9973-074AAD274E3F}"/>
+    <hyperlink ref="A6" location="'User Stats'!A1" display="User Stats" xr:uid="{99707FEF-A384-453A-B1A8-10111E0FE29D}"/>
+    <hyperlink ref="A7" location="'Computer Stats'!A1" display="Computer Stats" xr:uid="{9F420FEB-69B4-4222-B431-325C7C66247D}"/>
+    <hyperlink ref="A8" location="'Privileged Group Stats'!A1" display="Privileged Group Stats" xr:uid="{7B23F677-8534-4B92-8CCE-A5E56DBB59F0}"/>
+    <hyperlink ref="A9" location="'Computer Role Stats'!A1" display="Computer Role Stats" xr:uid="{8FEBC598-571A-4E76-943D-6F08014DEC01}"/>
+    <hyperlink ref="A10" location="'Operating System Stats'!A1" display="Operating System Stats" xr:uid="{F99CC316-95C7-468C-91EE-1E61B11EDC1B}"/>
+    <hyperlink ref="A11" location="'Users'!A1" display="Users" xr:uid="{F4D2902D-DE08-4459-B268-E691B364A2FC}"/>
+    <hyperlink ref="A12" location="'Group Members'!A1" display="Group Members" xr:uid="{E2BD9ADC-FB84-4230-89CB-2F7657485292}"/>
+    <hyperlink ref="A13" location="'Groups'!A1" display="Groups" xr:uid="{426B6538-9043-463C-9E3A-0F13572230EC}"/>
+    <hyperlink ref="A14" location="'User SPNs'!A1" display="User SPNs" xr:uid="{E99368CC-498E-4513-A0DB-A825E9BED100}"/>
+    <hyperlink ref="A15" location="'OUs'!A1" display="OUs" xr:uid="{C6B599D9-F01F-498E-A88D-639FB1222362}"/>
+    <hyperlink ref="A16" location="'ACLs'!A1" display="ACLs" xr:uid="{41591C65-5C45-4B85-A92E-3F9E7C2EAB77}"/>
+    <hyperlink ref="A17" location="'Computers'!A1" display="Computers" xr:uid="{A7F3A9D8-A985-4798-A60E-CD6F47D54AA3}"/>
+    <hyperlink ref="A18" location="'Computer SPNs'!A1" display="Computer SPNs" xr:uid="{E14F4C11-E770-475C-834B-0EE638ECF497}"/>
+    <hyperlink ref="A19" location="'LAPS'!A1" display="LAPS" xr:uid="{CBA01EE6-D618-4BCA-B6CF-2AAF1A91D917}"/>
+    <hyperlink ref="A20" location="'BitLocker'!A1" display="BitLocker" xr:uid="{78FA2B08-0855-43D8-9377-5F0C41FEB220}"/>
+    <hyperlink ref="A21" location="'DNS Zones'!A1" display="DNS Zones" xr:uid="{C925C6E3-09C6-4DFC-A694-EB913A9A6C24}"/>
+    <hyperlink ref="A22" location="'DNS Records'!A1" display="DNS Records" xr:uid="{EF3D8C3C-735D-4F55-9640-E322D37822D9}"/>
+    <hyperlink ref="A23" location="'Domain GPOs'!A1" display="Domain GPOs" xr:uid="{BA6D9DF6-1296-4B38-92ED-DFF62F23189C}"/>
+    <hyperlink ref="A24" location="'Domain Controllers'!A1" display="Domain Controllers" xr:uid="{29EDA982-86D3-4B59-AD23-81A6CEDE8E95}"/>
+    <hyperlink ref="A25" location="'Default Password Policy'!A1" display="Default Password Policy" xr:uid="{ED1869F5-3FD9-4CFF-A988-4029982D314B}"/>
+    <hyperlink ref="A26" location="'Fine Grained Password Policy'!A1" display="Fine Grained Password Policy" xr:uid="{FF738336-E15D-4842-BED7-165F19F23E81}"/>
+    <hyperlink ref="A27" location="'Sites'!A1" display="Sites" xr:uid="{EBDD6DFD-6D4F-47D1-A31A-96C266FE825C}"/>
+    <hyperlink ref="A28" location="'Subnets'!A1" display="Subnets" xr:uid="{DB4BDC56-6445-4C5C-A40B-B6A6669642F8}"/>
+    <hyperlink ref="A29" location="'Trusts'!A1" display="Trusts" xr:uid="{AA44F316-6EAE-451E-A56D-E09B93DDF5FB}"/>
+    <hyperlink ref="A30" location="'Domain'!A1" display="Domain" xr:uid="{4C22683D-AD4B-4DA5-A30B-84DF907296D4}"/>
+    <hyperlink ref="A31" location="'Forest'!A1" display="Forest" xr:uid="{6D6247BE-ADB1-4833-A63F-1B49450C1102}"/>
+    <hyperlink ref="A32" location="'About ADRecon'!A1" display="About ADRecon" xr:uid="{A3513551-243B-4ADD-A0F8-D20D54258397}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{CE44015E-CAA4-4DA7-8910-BEF53BBDC3FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -7506,7 +9146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A542F-CD36-496F-BD47-888ED4BADA47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05516F4-6282-49F5-8179-56BB07BD1302}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7607,7 +9247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9237EFD-E475-41D1-98D9-C283A499D18F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FFBF89-D77E-4A77-9FB7-F08941ED3D0C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7736,7 +9376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22864583-44BE-4247-BFCD-1B248AFD5818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8695685-76A5-44E3-9A2A-EFB531DBA2CF}">
   <dimension ref="A1:T454"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35922,7 +37562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513F69D2-14A0-423D-BCCB-785CB2FA3E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9128E0CF-02E2-4E4C-AF05-3C7341D5A3D6}">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36445,7 +38085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABA718-016C-47A2-9FD8-A19E60D1E1D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3208B-8C68-4804-84DF-2DA30B85D937}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36719,7 +38359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7D3DAC-2515-4E46-99D3-0C7DD415FD1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000253A6-1882-408F-8470-0CF25873E3FC}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36860,7 +38500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E3D24-638D-4C99-8DCD-578C69EB9E88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4C5274-51C8-4549-BFD7-312E89365460}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37036,7 +38676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23407EF-196A-4315-B4D4-65502BD57BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D33515E-066F-4732-81E3-913E11232BC0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37199,7 +38839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFCADD6-3CB6-4036-BA68-172FA803DF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D1142E-6261-4CFD-BDB4-3091787B09A1}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39775,7 +41415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5BEE07-418B-471D-AB4E-ABADBB3543B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B77EED3-2830-46CE-8AF3-EF856FA2822F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39959,7 +41599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989C2312-B23C-4D52-86B7-3E7672032CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7CDB8E-175B-4E45-AFE7-5FE25586F4B7}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -39968,6 +41608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
@@ -39996,48 +41637,46 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <f>COUNTIF(Users!C:C,"TRUE")</f>
-        <v>15</v>
-      </c>
-      <c r="C3" s="13">
-        <f>B3/B5</f>
-        <v>0.78947368421052633</v>
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.21052631578947367</v>
       </c>
       <c r="F3" t="str">
         <f>Users!D1</f>
@@ -40047,38 +41686,36 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!D:D,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="H3" s="13">
-        <f>G3/B3</f>
+      <c r="H3" s="12">
+        <f>IFERROR(G3/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!D:D,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="13">
-        <f>IF(B4&lt;&gt;0,I3/B4,0)</f>
+      <c r="J3" s="12">
+        <f>IFERROR(I3/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K3">
         <f>COUNTIF(Users!D:D,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="L3" s="13">
-        <f>K3/B5</f>
+      <c r="L3" s="12">
+        <f>IFERROR(K3/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF(Users!C:C,"FALSE")</f>
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <f>B4/B5</f>
-        <v>0.21052631578947367</v>
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.78947368421052633</v>
       </c>
       <c r="F4" t="str">
         <f>Users!E1</f>
@@ -40088,37 +41725,35 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!E:E,"TRUE")</f>
         <v>3</v>
       </c>
-      <c r="H4" s="13">
-        <f>G4/B3</f>
+      <c r="H4" s="12">
+        <f>IFERROR(G4/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.2</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!E:E,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="13">
-        <f>IF(B4&lt;&gt;0,I4/B4,0)</f>
+      <c r="J4" s="12">
+        <f>IFERROR(I4/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K4">
         <f>COUNTIF(Users!E:E,"TRUE")</f>
         <v>3</v>
       </c>
-      <c r="L4" s="13">
-        <f>K4/B5</f>
+      <c r="L4" s="12">
+        <f>IFERROR(K4/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="B5">
-        <f>COUNTA(Users!A:A)-1</f>
+      <c r="B5" s="7">
         <v>19</v>
       </c>
-      <c r="C5" s="13">
-        <f>SUM(C3:C4)</f>
+      <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="F5" t="str">
@@ -40129,24 +41764,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!F:F,"TRUE")</f>
         <v>11</v>
       </c>
-      <c r="H5" s="13">
-        <f>G5/B3</f>
+      <c r="H5" s="12">
+        <f>IFERROR(G5/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="I5">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!F:F,"TRUE")</f>
         <v>2</v>
       </c>
-      <c r="J5" s="13">
-        <f>IF(B4&lt;&gt;0,I5/B4,0)</f>
+      <c r="J5" s="12">
+        <f>IFERROR(I5/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0.5</v>
       </c>
       <c r="K5">
         <f>COUNTIF(Users!F:F,"TRUE")</f>
         <v>13</v>
       </c>
-      <c r="L5" s="13">
-        <f>K5/B5</f>
+      <c r="L5" s="12">
+        <f>IFERROR(K5/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.68421052631578949</v>
       </c>
     </row>
@@ -40159,24 +41794,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!G:G,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="H6" s="13">
-        <f>G6/B3</f>
+      <c r="H6" s="12">
+        <f>IFERROR(G6/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I6">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!G:G,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="13">
-        <f>IF(B4&lt;&gt;0,I6/B4,0)</f>
+      <c r="J6" s="12">
+        <f>IFERROR(I6/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Users!G:G,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="L6" s="13">
-        <f>K6/B5</f>
+      <c r="L6" s="12">
+        <f>IFERROR(K6/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -40189,24 +41824,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!H:H,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="H7" s="13">
-        <f>G7/B3</f>
+      <c r="H7" s="12">
+        <f>IFERROR(G7/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I7">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!H:H,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="13">
-        <f>IF(B4&lt;&gt;0,I7/B4,0)</f>
+      <c r="J7" s="12">
+        <f>IFERROR(I7/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Users!H:H,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="L7" s="13">
-        <f>K7/B5</f>
+      <c r="L7" s="12">
+        <f>IFERROR(K7/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -40219,24 +41854,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!I:I,"TRUE")</f>
         <v>14</v>
       </c>
-      <c r="H8" s="13">
-        <f>G8/B3</f>
+      <c r="H8" s="12">
+        <f>IFERROR(G8/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.93333333333333335</v>
       </c>
       <c r="I8">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!I:I,"TRUE")</f>
         <v>4</v>
       </c>
-      <c r="J8" s="13">
-        <f>IF(B4&lt;&gt;0,I8/B4,0)</f>
+      <c r="J8" s="12">
+        <f>IFERROR(I8/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Users!I:I,"TRUE")</f>
         <v>18</v>
       </c>
-      <c r="L8" s="13">
-        <f>K8/B5</f>
+      <c r="L8" s="12">
+        <f>IFERROR(K8/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.94736842105263153</v>
       </c>
     </row>
@@ -40249,24 +41884,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!J:J,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="H9" s="13">
-        <f>G9/B3</f>
+      <c r="H9" s="12">
+        <f>IFERROR(G9/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I9">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!J:J,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="13">
-        <f>IF(B4&lt;&gt;0,I9/B4,0)</f>
+      <c r="J9" s="12">
+        <f>IFERROR(I9/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Users!J:J,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="L9" s="13">
-        <f>K9/B5</f>
+      <c r="L9" s="12">
+        <f>IFERROR(K9/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -40279,24 +41914,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!K:K,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="H10" s="13">
-        <f>G10/B3</f>
+      <c r="H10" s="12">
+        <f>IFERROR(G10/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I10">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!K:K,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="13">
-        <f>IF(B4&lt;&gt;0,I10/B4,0)</f>
+      <c r="J10" s="12">
+        <f>IFERROR(I10/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Users!K:K,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="L10" s="13">
-        <f>K10/B5</f>
+      <c r="L10" s="12">
+        <f>IFERROR(K10/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -40309,24 +41944,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!N:N,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="H11" s="13">
-        <f>G11/B3</f>
+      <c r="H11" s="12">
+        <f>IFERROR(G11/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I11">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!N:N,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="13">
-        <f>IF(B4&lt;&gt;0,I11/B4,0)</f>
+      <c r="J11" s="12">
+        <f>IFERROR(I11/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Users!N:N,"TRUE")</f>
         <v>1</v>
       </c>
-      <c r="L11" s="13">
-        <f>K11/B5</f>
+      <c r="L11" s="12">
+        <f>IFERROR(K11/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -40339,24 +41974,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!S:S,"TRUE")</f>
         <v>13</v>
       </c>
-      <c r="H12" s="13">
-        <f>G12/B3</f>
+      <c r="H12" s="12">
+        <f>IFERROR(G12/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="I12">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!S:S,"TRUE")</f>
         <v>2</v>
       </c>
-      <c r="J12" s="13">
-        <f>IF(B4&lt;&gt;0,I12/B4,0)</f>
+      <c r="J12" s="12">
+        <f>IFERROR(I12/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0.5</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Users!S:S,"TRUE")</f>
         <v>15</v>
       </c>
-      <c r="L12" s="13">
-        <f>K12/B5</f>
+      <c r="L12" s="12">
+        <f>IFERROR(K12/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -40369,24 +42004,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!T:T,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="H13" s="13">
-        <f>G13/B3</f>
+      <c r="H13" s="12">
+        <f>IFERROR(G13/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I13">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!T:T,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="13">
-        <f>IF(B4&lt;&gt;0,I13/B4,0)</f>
+      <c r="J13" s="12">
+        <f>IFERROR(I13/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Users!T:T,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="L13" s="13">
-        <f>K13/B5</f>
+      <c r="L13" s="12">
+        <f>IFERROR(K13/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -40399,24 +42034,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!O:O,"TRUE")</f>
         <v>11</v>
       </c>
-      <c r="H14" s="13">
-        <f>G14/B3</f>
+      <c r="H14" s="12">
+        <f>IFERROR(G14/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="I14">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!O:O,"TRUE")</f>
         <v>4</v>
       </c>
-      <c r="J14" s="13">
-        <f>IF(B4&lt;&gt;0,I14/B4,0)</f>
+      <c r="J14" s="12">
+        <f>IFERROR(I14/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Users!O:O,"TRUE")</f>
         <v>15</v>
       </c>
-      <c r="L14" s="13">
-        <f>K14/B5</f>
+      <c r="L14" s="12">
+        <f>IFERROR(K14/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -40429,24 +42064,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!R:R,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="H15" s="13">
-        <f>G15/B3</f>
+      <c r="H15" s="12">
+        <f>IFERROR(G15/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I15">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!R:R,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="13">
-        <f>IF(B4&lt;&gt;0,I15/B4,0)</f>
+      <c r="J15" s="12">
+        <f>IFERROR(I15/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Users!R:R,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="13">
-        <f>K15/B5</f>
+      <c r="L15" s="12">
+        <f>IFERROR(K15/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -40459,24 +42094,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!V:V,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="H16" s="13">
-        <f>G16/B3</f>
+      <c r="H16" s="12">
+        <f>IFERROR(G16/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I16">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!V:V,"TRUE")</f>
         <v>2</v>
       </c>
-      <c r="J16" s="13">
-        <f>IF(B4&lt;&gt;0,I16/B4,0)</f>
+      <c r="J16" s="12">
+        <f>IFERROR(I16/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0.5</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Users!V:V,"TRUE")</f>
         <v>2</v>
       </c>
-      <c r="L16" s="13">
-        <f>K16/B5</f>
+      <c r="L16" s="12">
+        <f>IFERROR(K16/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.10526315789473684</v>
       </c>
     </row>
@@ -40488,24 +42123,24 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!W:W,"Unconstrained")</f>
         <v>1</v>
       </c>
-      <c r="H17" s="13">
-        <f>G17/B3</f>
+      <c r="H17" s="12">
+        <f>IFERROR(G17/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I17">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!W:W,"Unconstrained")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
-        <f>IF(B4&lt;&gt;0,I17/B4,0)</f>
+      <c r="J17" s="12">
+        <f>IFERROR(I17/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Users!W:W,"Unconstrained")</f>
         <v>1</v>
       </c>
-      <c r="L17" s="13">
-        <f>K17/B5</f>
+      <c r="L17" s="12">
+        <f>IFERROR(K17/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -40518,29 +42153,29 @@
         <f>COUNTIFS(Users!C:C,"TRUE",Users!AD:AD,"*")</f>
         <v>1</v>
       </c>
-      <c r="H18" s="13">
-        <f>G18/B3</f>
+      <c r="H18" s="12">
+        <f>IFERROR(G18/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I18">
         <f>COUNTIFS(Users!C:C,"FALSE",Users!AD:AD,"*")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="13">
-        <f>IF(B4&lt;&gt;0,I18/B4,0)</f>
+      <c r="J18" s="12">
+        <f>IFERROR(I18/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Users!AD:AD,"*")-1</f>
         <v>1</v>
       </c>
-      <c r="L18" s="13">
-        <f>K18/B5</f>
+      <c r="L18" s="12">
+        <f>IFERROR(K18/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>1006</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -40553,16 +42188,16 @@
     <mergeCell ref="F1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A20" location="Users!A1" display="Raw Data" xr:uid="{4D4580B4-E69B-4A90-B06E-7E8225A6FFE9}"/>
-    <hyperlink ref="F20" location="Users!A1" display="Raw Data" xr:uid="{54698C9E-1DED-48CF-86E0-762AD75314F5}"/>
+    <hyperlink ref="A20" location="Users!A1" display="Raw Data" xr:uid="{D50205D3-FCAE-4A0B-AD0E-586534288D84}"/>
+    <hyperlink ref="F20" location="Users!A1" display="Raw Data" xr:uid="{CD8BB0D4-54C5-4046-BA19-BA50AEC5B3A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AA9E44-592B-43F0-ACC2-814A9CCD4AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A71E7D-FAD7-46D9-AAE7-EBAE2F47A09B}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40712,7 +42347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252522C4-C935-4E7E-9842-74CF3B4230B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4B68A0-FEE4-48CA-8382-13E0FA66EE07}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40812,7 +42447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155251CD-F104-4D9F-8EB4-F100E03D156A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17387ABC-D99D-47B9-80AE-0119A42719FB}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40936,7 +42571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D31248-1741-47EB-9929-633721FA7D9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C525431-338A-40F7-A885-B9D61A0A0F07}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40983,7 +42618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A88B96A-AEDB-425E-B7CB-34ABC06A6CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E235DD94-76B1-43AD-944A-30BED66265C2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41040,7 +42675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3693A-31F8-4A02-ABE9-A41515233553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A823F31-C4FA-42C1-8FD8-435D582C76B8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41111,7 +42746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973C793-B340-4214-B5D8-1E45B25F145F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B512CD-0FEC-4229-8D14-EB84938272F2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41203,7 +42838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDAB7DC-50DB-4CB4-B878-291F49721325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0035B21C-D66A-4142-83BD-6C38E969D119}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41359,7 +42994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BB1C73-EF42-402D-9540-BD816EDB655F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878FA8B3-EB39-424A-8392-11BB3DBF8F05}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41428,7 +43063,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{26BF5A1C-BFF9-4D40-B349-58A630BAFE8C}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{51476173-BF8C-4579-8D73-5E7D98444BE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -41438,7 +43073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70EAA8F-08C5-44DB-9FDC-205FD0CF5610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB7E9A0-F4C7-4852-A836-118E21546414}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -41447,6 +43082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -41475,47 +43111,45 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <f>COUNTIF(Computers!C:C,"TRUE")</f>
+      <c r="B3" s="7">
         <v>7</v>
       </c>
-      <c r="C3" s="13">
-        <f>B3/B5</f>
+      <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -41525,38 +43159,36 @@
         <f>COUNTIFS(Computers!C:C,"TRUE",Computers!J:J,"Unconstrained")</f>
         <v>1</v>
       </c>
-      <c r="H3" s="13">
-        <f>G3/B3</f>
+      <c r="H3" s="12">
+        <f>IFERROR(G3/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(Computers!C:C,"FALSE",Computers!J:J,"Unconstrained")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="13">
-        <f>IF(B4&lt;&gt;0,I3/B4,0)</f>
+      <c r="J3" s="12">
+        <f>IFERROR(I3/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K3">
         <f>COUNTIF(Computers!J:J,"Unconstrained")</f>
         <v>1</v>
       </c>
-      <c r="L3" s="13">
-        <f>K3/B5</f>
+      <c r="L3" s="12">
+        <f>IFERROR(K3/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF(Computers!C:C,"FALSE")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <f>B4/B5</f>
-        <v>0</v>
+      <c r="A4" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>1019</v>
@@ -41565,39 +43197,28 @@
         <f>COUNTIFS(Computers!C:C,"TRUE",Computers!J:J,"Constrained")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="13">
-        <f>G4/B3</f>
+      <c r="H4" s="12">
+        <f>IFERROR(G4/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(Computers!C:C,"FALSE",Computers!J:J,"Constrained")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="13">
-        <f>IF(B4&lt;&gt;0,I4/B4,0)</f>
+      <c r="J4" s="12">
+        <f>IFERROR(I4/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K4">
         <f>COUNTIF(Computers!J:J,"Constrained")</f>
         <v>2</v>
       </c>
-      <c r="L4" s="13">
-        <f>K4/B5</f>
+      <c r="L4" s="12">
+        <f>IFERROR(K4/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B5">
-        <f>COUNTA(Computers!M:M)-1</f>
-        <v>7</v>
-      </c>
-      <c r="C5" s="13">
-        <f>SUM(C3:C4)</f>
-        <v>1</v>
-      </c>
       <c r="F5" t="str">
         <f>Computers!P1</f>
         <v>SIDHistory</v>
@@ -41606,24 +43227,24 @@
         <f>COUNTIFS(Computers!C:C,"TRUE",Computers!P:P,"*")</f>
         <v>1</v>
       </c>
-      <c r="H5" s="13">
-        <f>G5/B3</f>
+      <c r="H5" s="12">
+        <f>IFERROR(G5/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="I5">
         <f>COUNTIFS(Computers!C:C,"FALSE",Computers!P:P,"*")</f>
         <v>0</v>
       </c>
-      <c r="J5" s="13">
-        <f>IF(B4&lt;&gt;0,I5/B4,0)</f>
+      <c r="J5" s="12">
+        <f>IFERROR(I5/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K5">
         <f>COUNTIF(Computers!P:P,"*")-1</f>
         <v>1</v>
       </c>
-      <c r="L5" s="13">
-        <f>K5/B5</f>
+      <c r="L5" s="12">
+        <f>IFERROR(K5/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -41636,24 +43257,24 @@
         <f>COUNTIFS(Computers!C:C,"TRUE",Computers!H:H,"TRUE")</f>
         <v>3</v>
       </c>
-      <c r="H6" s="13">
-        <f>G6/B3</f>
+      <c r="H6" s="12">
+        <f>IFERROR(G6/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="I6">
         <f>COUNTIFS(Computers!C:C,"FALSE",Computers!H:H,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="13">
-        <f>IF(B4&lt;&gt;0,I6/B4,0)</f>
+      <c r="J6" s="12">
+        <f>IFERROR(I6/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Computers!H:H,"TRUE")</f>
         <v>3</v>
       </c>
-      <c r="L6" s="13">
-        <f>K6/B5</f>
+      <c r="L6" s="12">
+        <f>IFERROR(K6/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -41666,29 +43287,29 @@
         <f>COUNTIFS(Computers!C:C,"TRUE",Computers!I:I,"TRUE")</f>
         <v>4</v>
       </c>
-      <c r="H7" s="13">
-        <f>G7/B3</f>
+      <c r="H7" s="12">
+        <f>IFERROR(G7/VLOOKUP("Enabled",A3:B6,2,FALSE),0)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="I7">
         <f>COUNTIFS(Computers!C:C,"FALSE",Computers!I:I,"TRUE")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="13">
-        <f>IF(B4&lt;&gt;0,I7/B4,0)</f>
+      <c r="J7" s="12">
+        <f>IFERROR(I7/VLOOKUP("Disabled",A3:B6,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Computers!I:I,"TRUE")</f>
         <v>4</v>
       </c>
-      <c r="L7" s="13">
-        <f>K7/B5</f>
+      <c r="L7" s="12">
+        <f>IFERROR(K7/VLOOKUP("Total",A3:B6,2,FALSE),0)</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>1006</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -41701,17 +43322,17 @@
     <mergeCell ref="F1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A9" location="Computers!A1" display="Raw Data" xr:uid="{2DB50062-C642-4AE7-BB54-5A668E5B1D51}"/>
-    <hyperlink ref="F9" location="Computers!A1" display="Raw Data" xr:uid="{CA3A4F41-FE8A-44CB-8B55-C0E39B2AAF47}"/>
+    <hyperlink ref="A9" location="Computers!A1" display="Raw Data" xr:uid="{FCC8F64F-E842-4F06-B39F-CCF47650C73B}"/>
+    <hyperlink ref="F9" location="Computers!A1" display="Raw Data" xr:uid="{EBBAD582-16E2-4570-97FF-54BAA90A9076}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583EC887-2B47-4D68-8106-C2B0F14AEECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6958190-6965-433E-873B-F155139519B2}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -41849,7 +43470,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Group Members'!A1" display="Raw Data" xr:uid="{96C1F44E-504A-4699-90F9-E40DD0D441A3}"/>
+    <hyperlink ref="D1" location="'Group Members'!A1" display="Raw Data" xr:uid="{909A5E89-49AC-4FAB-966E-3C20AFD2303A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -41857,7 +43478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A742F33-7C52-4FFC-81D5-D65160D9ADFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAF979C-3245-4C2D-8FA1-E424B9017C1F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -41969,7 +43590,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Computer SPNs'!A1" display="Raw Data" xr:uid="{D0ECF594-8A18-42C4-B885-1DE46C4F4AEF}"/>
+    <hyperlink ref="D1" location="'Computer SPNs'!A1" display="Raw Data" xr:uid="{BC483198-E747-48AC-8B24-BAE8708519F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -41977,7 +43598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BC6A6-41CF-4794-AA9F-5FDD06142246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D65AE1B-9B09-4AEE-AEBF-632B475D97ED}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -42057,7 +43678,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="Computers!A1" display="Raw Data" xr:uid="{CB6BFE73-AA17-40C5-9041-A2ED4CA0050D}"/>
+    <hyperlink ref="D1" location="Computers!A1" display="Raw Data" xr:uid="{C07B051B-A4E2-46B8-AF31-81482BA8E7B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -42065,7 +43686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5A0D8D-0F4A-412A-9A5E-09D8F499D950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61BE494-8B79-4F13-955B-A371CBFF9A2C}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43885,7 +45506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616D41F-23D7-4C65-80D1-571901AD5C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B71F79C-B51F-425C-868A-ABA8979C8160}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -44453,7 +46074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F61C509-7020-4B5B-991A-294369C968EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2514849-C49A-4F13-887C-54CEAE0C6DD8}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
